--- a/docs/trends-paper/wave-counts/us-wave-counts/third_us_wave_counts.xlsx
+++ b/docs/trends-paper/wave-counts/us-wave-counts/third_us_wave_counts.xlsx
@@ -358,7 +358,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -404,16 +404,6 @@
       </c>
       <c r="B4">
         <v>259</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>total</t>
-        </is>
-      </c>
-      <c r="B5">
-        <v>1163</v>
       </c>
     </row>
   </sheetData>

--- a/docs/trends-paper/wave-counts/us-wave-counts/third_us_wave_counts.xlsx
+++ b/docs/trends-paper/wave-counts/us-wave-counts/third_us_wave_counts.xlsx
@@ -383,7 +383,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>447</v>
+        <v>440</v>
       </c>
     </row>
     <row r="3">
@@ -393,7 +393,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>457</v>
+        <v>451</v>
       </c>
     </row>
     <row r="4">
@@ -403,7 +403,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -413,7 +413,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B408"/>
+  <dimension ref="A1:B347"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -436,7 +436,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>40861</v>
+        <v>40860</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -444,7 +444,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>40865</v>
+        <v>40867</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -452,7 +452,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>40872</v>
+        <v>40874</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -460,7 +460,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>40879</v>
+        <v>40881</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <v>40886</v>
+        <v>40888</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2">
-        <v>40893</v>
+        <v>40895</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2">
-        <v>40900</v>
+        <v>40902</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2">
-        <v>40907</v>
+        <v>40909</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2">
-        <v>40914</v>
+        <v>40916</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2">
-        <v>40921</v>
+        <v>40923</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -516,7 +516,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2">
-        <v>40928</v>
+        <v>40930</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2">
-        <v>40935</v>
+        <v>40937</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2">
-        <v>40942</v>
+        <v>40944</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2">
-        <v>40949</v>
+        <v>40951</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -548,7 +548,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2">
-        <v>40956</v>
+        <v>40958</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -556,7 +556,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2">
-        <v>40963</v>
+        <v>40965</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2">
-        <v>40970</v>
+        <v>40972</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -572,7 +572,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2">
-        <v>40977</v>
+        <v>40979</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -580,7 +580,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2">
-        <v>40984</v>
+        <v>40986</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2">
-        <v>40991</v>
+        <v>40993</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -596,7 +596,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2">
-        <v>40998</v>
+        <v>41000</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -604,7 +604,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2">
-        <v>41005</v>
+        <v>41007</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -612,7 +612,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2">
-        <v>41012</v>
+        <v>41014</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -620,7 +620,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2">
-        <v>41019</v>
+        <v>41021</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2">
-        <v>41026</v>
+        <v>41028</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -636,7 +636,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2">
-        <v>41033</v>
+        <v>41035</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -644,7 +644,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2">
-        <v>41040</v>
+        <v>41042</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -652,7 +652,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2">
-        <v>41047</v>
+        <v>41049</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -660,7 +660,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2">
-        <v>41054</v>
+        <v>41056</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -668,7 +668,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2">
-        <v>41061</v>
+        <v>41063</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -676,7 +676,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2">
-        <v>41068</v>
+        <v>41070</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -684,7 +684,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2">
-        <v>41075</v>
+        <v>41077</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -692,7 +692,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2">
-        <v>41082</v>
+        <v>41084</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2">
-        <v>41089</v>
+        <v>41091</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -708,7 +708,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2">
-        <v>41096</v>
+        <v>41098</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -716,7 +716,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2">
-        <v>41103</v>
+        <v>41105</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -724,7 +724,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2">
-        <v>41110</v>
+        <v>41112</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -732,7 +732,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2">
-        <v>41117</v>
+        <v>41119</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -740,7 +740,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2">
-        <v>41124</v>
+        <v>41126</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -748,7 +748,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2">
-        <v>41131</v>
+        <v>41133</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -756,7 +756,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2">
-        <v>41138</v>
+        <v>41140</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -764,7 +764,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2">
-        <v>41145</v>
+        <v>41147</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -772,7 +772,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2">
-        <v>41152</v>
+        <v>41154</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -780,7 +780,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2">
-        <v>41159</v>
+        <v>41161</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -788,7 +788,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2">
-        <v>41166</v>
+        <v>41168</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -796,7 +796,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2">
-        <v>41173</v>
+        <v>41175</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -804,7 +804,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2">
-        <v>41180</v>
+        <v>41182</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -812,7 +812,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2">
-        <v>41187</v>
+        <v>41189</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -820,7 +820,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2">
-        <v>41194</v>
+        <v>41196</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -828,7 +828,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2">
-        <v>41201</v>
+        <v>41203</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -836,7 +836,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2">
-        <v>41208</v>
+        <v>41210</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -844,7 +844,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2">
-        <v>41215</v>
+        <v>41217</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -852,7 +852,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2">
-        <v>41222</v>
+        <v>41224</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -860,7 +860,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2">
-        <v>41229</v>
+        <v>41231</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -868,7 +868,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2">
-        <v>41236</v>
+        <v>41238</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -876,7 +876,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2">
-        <v>41243</v>
+        <v>41245</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -884,7 +884,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2">
-        <v>41250</v>
+        <v>41252</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -892,7 +892,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2">
-        <v>41257</v>
+        <v>41259</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -900,7 +900,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2">
-        <v>41264</v>
+        <v>41266</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -908,7 +908,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2">
-        <v>41271</v>
+        <v>41273</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -916,7 +916,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2">
-        <v>41278</v>
+        <v>41280</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -924,7 +924,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2">
-        <v>41285</v>
+        <v>41287</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -932,7 +932,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2">
-        <v>41292</v>
+        <v>41294</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -940,7 +940,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2">
-        <v>41299</v>
+        <v>41301</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -948,7 +948,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2">
-        <v>41306</v>
+        <v>41308</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -956,7 +956,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2">
-        <v>41313</v>
+        <v>41315</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -964,7 +964,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2">
-        <v>41320</v>
+        <v>41322</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2">
-        <v>41327</v>
+        <v>41329</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -980,7 +980,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2">
-        <v>41334</v>
+        <v>41336</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -988,7 +988,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2">
-        <v>41341</v>
+        <v>41343</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -996,7 +996,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2">
-        <v>41348</v>
+        <v>41350</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -1004,7 +1004,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2">
-        <v>41355</v>
+        <v>41357</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -1012,7 +1012,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2">
-        <v>41362</v>
+        <v>41364</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -1020,7 +1020,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2">
-        <v>41369</v>
+        <v>41371</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -1028,7 +1028,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2">
-        <v>41376</v>
+        <v>41378</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1036,7 +1036,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2">
-        <v>41383</v>
+        <v>41385</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1044,7 +1044,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2">
-        <v>41390</v>
+        <v>41392</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1052,7 +1052,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2">
-        <v>41397</v>
+        <v>41399</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1060,7 +1060,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2">
-        <v>41404</v>
+        <v>41406</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1068,7 +1068,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2">
-        <v>41411</v>
+        <v>41413</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1076,7 +1076,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2">
-        <v>41418</v>
+        <v>41420</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1084,7 +1084,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2">
-        <v>41425</v>
+        <v>41427</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1092,7 +1092,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2">
-        <v>41432</v>
+        <v>41434</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1100,7 +1100,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2">
-        <v>41439</v>
+        <v>41441</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2">
-        <v>41446</v>
+        <v>41448</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1116,7 +1116,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2">
-        <v>41453</v>
+        <v>41455</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1124,7 +1124,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2">
-        <v>41460</v>
+        <v>41462</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1132,7 +1132,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2">
-        <v>41467</v>
+        <v>41469</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1140,7 +1140,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2">
-        <v>41474</v>
+        <v>41476</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1148,7 +1148,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2">
-        <v>41481</v>
+        <v>41483</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1156,7 +1156,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2">
-        <v>41488</v>
+        <v>41490</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1164,7 +1164,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2">
-        <v>41495</v>
+        <v>41497</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1172,7 +1172,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2">
-        <v>41502</v>
+        <v>41504</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2">
-        <v>41509</v>
+        <v>41511</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1188,7 +1188,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2">
-        <v>41516</v>
+        <v>41518</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1196,7 +1196,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2">
-        <v>41523</v>
+        <v>41525</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -1204,7 +1204,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2">
-        <v>41530</v>
+        <v>41532</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -1212,7 +1212,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2">
-        <v>41537</v>
+        <v>41539</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -1220,7 +1220,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2">
-        <v>41544</v>
+        <v>41546</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1228,7 +1228,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2">
-        <v>41551</v>
+        <v>41553</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -1236,7 +1236,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2">
-        <v>41558</v>
+        <v>41560</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1244,7 +1244,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2">
-        <v>41565</v>
+        <v>41567</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1252,7 +1252,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2">
-        <v>41572</v>
+        <v>41574</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -1260,7 +1260,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2">
-        <v>41579</v>
+        <v>41581</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -1268,7 +1268,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2">
-        <v>41586</v>
+        <v>41588</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -1276,7 +1276,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2">
-        <v>41593</v>
+        <v>41595</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -1284,7 +1284,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2">
-        <v>41600</v>
+        <v>41602</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -1292,7 +1292,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2">
-        <v>41607</v>
+        <v>41609</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -1300,7 +1300,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2">
-        <v>41614</v>
+        <v>41616</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -1308,7 +1308,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2">
-        <v>41621</v>
+        <v>41623</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2">
-        <v>41628</v>
+        <v>41630</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -1324,7 +1324,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2">
-        <v>41635</v>
+        <v>41637</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -1332,7 +1332,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2">
-        <v>41642</v>
+        <v>41644</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -1340,7 +1340,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2">
-        <v>41649</v>
+        <v>41651</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -1348,7 +1348,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2">
-        <v>41656</v>
+        <v>41658</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -1356,7 +1356,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2">
-        <v>41663</v>
+        <v>41665</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -1364,7 +1364,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2">
-        <v>41670</v>
+        <v>41672</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -1372,7 +1372,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2">
-        <v>41677</v>
+        <v>41679</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -1380,7 +1380,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2">
-        <v>41684</v>
+        <v>41686</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -1388,7 +1388,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2">
-        <v>41691</v>
+        <v>41693</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -1396,7 +1396,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2">
-        <v>41698</v>
+        <v>41700</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -1404,7 +1404,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2">
-        <v>41705</v>
+        <v>41707</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -1412,7 +1412,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2">
-        <v>41712</v>
+        <v>41714</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -1420,7 +1420,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2">
-        <v>41719</v>
+        <v>41721</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -1428,7 +1428,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2">
-        <v>41726</v>
+        <v>41728</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -1436,7 +1436,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2">
-        <v>41733</v>
+        <v>41735</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -1444,7 +1444,7 @@
     </row>
     <row r="128">
       <c r="A128" s="2">
-        <v>41740</v>
+        <v>41742</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="129">
       <c r="A129" s="2">
-        <v>41747</v>
+        <v>41749</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -1460,7 +1460,7 @@
     </row>
     <row r="130">
       <c r="A130" s="2">
-        <v>41754</v>
+        <v>41756</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -1468,7 +1468,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2">
-        <v>41761</v>
+        <v>41763</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -1476,7 +1476,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2">
-        <v>41768</v>
+        <v>41770</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -1484,7 +1484,7 @@
     </row>
     <row r="133">
       <c r="A133" s="2">
-        <v>41775</v>
+        <v>41777</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -1492,7 +1492,7 @@
     </row>
     <row r="134">
       <c r="A134" s="2">
-        <v>41782</v>
+        <v>41784</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -1500,7 +1500,7 @@
     </row>
     <row r="135">
       <c r="A135" s="2">
-        <v>41789</v>
+        <v>41791</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -1508,7 +1508,7 @@
     </row>
     <row r="136">
       <c r="A136" s="2">
-        <v>41796</v>
+        <v>41798</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -1516,7 +1516,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2">
-        <v>41803</v>
+        <v>41805</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -1524,7 +1524,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2">
-        <v>41810</v>
+        <v>41812</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -1532,7 +1532,7 @@
     </row>
     <row r="139">
       <c r="A139" s="2">
-        <v>41817</v>
+        <v>41819</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -1540,7 +1540,7 @@
     </row>
     <row r="140">
       <c r="A140" s="2">
-        <v>41824</v>
+        <v>41826</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -1548,7 +1548,7 @@
     </row>
     <row r="141">
       <c r="A141" s="2">
-        <v>41831</v>
+        <v>41833</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -1556,7 +1556,7 @@
     </row>
     <row r="142">
       <c r="A142" s="2">
-        <v>41838</v>
+        <v>41840</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -1564,7 +1564,7 @@
     </row>
     <row r="143">
       <c r="A143" s="2">
-        <v>41845</v>
+        <v>41847</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -1572,7 +1572,7 @@
     </row>
     <row r="144">
       <c r="A144" s="2">
-        <v>41852</v>
+        <v>41854</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -1580,7 +1580,7 @@
     </row>
     <row r="145">
       <c r="A145" s="2">
-        <v>41859</v>
+        <v>41861</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="146">
       <c r="A146" s="2">
-        <v>41866</v>
+        <v>41868</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -1596,7 +1596,7 @@
     </row>
     <row r="147">
       <c r="A147" s="2">
-        <v>41873</v>
+        <v>41875</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -1604,7 +1604,7 @@
     </row>
     <row r="148">
       <c r="A148" s="2">
-        <v>41880</v>
+        <v>41882</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -1612,7 +1612,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2">
-        <v>41887</v>
+        <v>41889</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -1620,7 +1620,7 @@
     </row>
     <row r="150">
       <c r="A150" s="2">
-        <v>41894</v>
+        <v>41896</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -1628,7 +1628,7 @@
     </row>
     <row r="151">
       <c r="A151" s="2">
-        <v>41901</v>
+        <v>41903</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -1636,7 +1636,7 @@
     </row>
     <row r="152">
       <c r="A152" s="2">
-        <v>41908</v>
+        <v>41910</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -1644,7 +1644,7 @@
     </row>
     <row r="153">
       <c r="A153" s="2">
-        <v>41915</v>
+        <v>41917</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="154">
       <c r="A154" s="2">
-        <v>41922</v>
+        <v>41924</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -1660,7 +1660,7 @@
     </row>
     <row r="155">
       <c r="A155" s="2">
-        <v>41929</v>
+        <v>41931</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -1668,7 +1668,7 @@
     </row>
     <row r="156">
       <c r="A156" s="2">
-        <v>41936</v>
+        <v>41938</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -1676,7 +1676,7 @@
     </row>
     <row r="157">
       <c r="A157" s="2">
-        <v>41943</v>
+        <v>41945</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -1684,7 +1684,7 @@
     </row>
     <row r="158">
       <c r="A158" s="2">
-        <v>41950</v>
+        <v>41952</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -1692,7 +1692,7 @@
     </row>
     <row r="159">
       <c r="A159" s="2">
-        <v>41957</v>
+        <v>41959</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -1700,7 +1700,7 @@
     </row>
     <row r="160">
       <c r="A160" s="2">
-        <v>41964</v>
+        <v>41966</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="161">
       <c r="A161" s="2">
-        <v>41971</v>
+        <v>41973</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -1716,7 +1716,7 @@
     </row>
     <row r="162">
       <c r="A162" s="2">
-        <v>41978</v>
+        <v>41980</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="163">
       <c r="A163" s="2">
-        <v>41985</v>
+        <v>41987</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -1732,7 +1732,7 @@
     </row>
     <row r="164">
       <c r="A164" s="2">
-        <v>41992</v>
+        <v>41994</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -1740,7 +1740,7 @@
     </row>
     <row r="165">
       <c r="A165" s="2">
-        <v>41999</v>
+        <v>42001</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -1748,7 +1748,7 @@
     </row>
     <row r="166">
       <c r="A166" s="2">
-        <v>42006</v>
+        <v>42008</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -1756,7 +1756,7 @@
     </row>
     <row r="167">
       <c r="A167" s="2">
-        <v>42013</v>
+        <v>42015</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -1764,7 +1764,7 @@
     </row>
     <row r="168">
       <c r="A168" s="2">
-        <v>42020</v>
+        <v>42022</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -1772,7 +1772,7 @@
     </row>
     <row r="169">
       <c r="A169" s="2">
-        <v>42027</v>
+        <v>42029</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -1780,7 +1780,7 @@
     </row>
     <row r="170">
       <c r="A170" s="2">
-        <v>42034</v>
+        <v>42036</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -1788,7 +1788,7 @@
     </row>
     <row r="171">
       <c r="A171" s="2">
-        <v>42041</v>
+        <v>42043</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -1796,7 +1796,7 @@
     </row>
     <row r="172">
       <c r="A172" s="2">
-        <v>42048</v>
+        <v>42050</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="173">
       <c r="A173" s="2">
-        <v>42055</v>
+        <v>42057</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -1812,7 +1812,7 @@
     </row>
     <row r="174">
       <c r="A174" s="2">
-        <v>42062</v>
+        <v>42064</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -1820,7 +1820,7 @@
     </row>
     <row r="175">
       <c r="A175" s="2">
-        <v>42069</v>
+        <v>42071</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -1828,7 +1828,7 @@
     </row>
     <row r="176">
       <c r="A176" s="2">
-        <v>42076</v>
+        <v>42078</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -1836,7 +1836,7 @@
     </row>
     <row r="177">
       <c r="A177" s="2">
-        <v>42083</v>
+        <v>42085</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -1844,7 +1844,7 @@
     </row>
     <row r="178">
       <c r="A178" s="2">
-        <v>42090</v>
+        <v>42092</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -1852,7 +1852,7 @@
     </row>
     <row r="179">
       <c r="A179" s="2">
-        <v>42097</v>
+        <v>42099</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -1860,7 +1860,7 @@
     </row>
     <row r="180">
       <c r="A180" s="2">
-        <v>42104</v>
+        <v>42106</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -1868,7 +1868,7 @@
     </row>
     <row r="181">
       <c r="A181" s="2">
-        <v>42111</v>
+        <v>42113</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -1876,7 +1876,7 @@
     </row>
     <row r="182">
       <c r="A182" s="2">
-        <v>42118</v>
+        <v>42120</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -1884,7 +1884,7 @@
     </row>
     <row r="183">
       <c r="A183" s="2">
-        <v>42125</v>
+        <v>42127</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -1892,7 +1892,7 @@
     </row>
     <row r="184">
       <c r="A184" s="2">
-        <v>42132</v>
+        <v>42134</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -1900,7 +1900,7 @@
     </row>
     <row r="185">
       <c r="A185" s="2">
-        <v>42139</v>
+        <v>42141</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -1908,7 +1908,7 @@
     </row>
     <row r="186">
       <c r="A186" s="2">
-        <v>42146</v>
+        <v>42148</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -1916,7 +1916,7 @@
     </row>
     <row r="187">
       <c r="A187" s="2">
-        <v>42153</v>
+        <v>42155</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -1924,7 +1924,7 @@
     </row>
     <row r="188">
       <c r="A188" s="2">
-        <v>42160</v>
+        <v>42162</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -1932,7 +1932,7 @@
     </row>
     <row r="189">
       <c r="A189" s="2">
-        <v>42167</v>
+        <v>42169</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -1940,7 +1940,7 @@
     </row>
     <row r="190">
       <c r="A190" s="2">
-        <v>42174</v>
+        <v>42176</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -1948,7 +1948,7 @@
     </row>
     <row r="191">
       <c r="A191" s="2">
-        <v>42181</v>
+        <v>42183</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -1956,7 +1956,7 @@
     </row>
     <row r="192">
       <c r="A192" s="2">
-        <v>42188</v>
+        <v>42190</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -1964,7 +1964,7 @@
     </row>
     <row r="193">
       <c r="A193" s="2">
-        <v>42195</v>
+        <v>42197</v>
       </c>
       <c r="B193">
         <v>0</v>
@@ -1972,7 +1972,7 @@
     </row>
     <row r="194">
       <c r="A194" s="2">
-        <v>42202</v>
+        <v>42204</v>
       </c>
       <c r="B194">
         <v>0</v>
@@ -1980,7 +1980,7 @@
     </row>
     <row r="195">
       <c r="A195" s="2">
-        <v>42209</v>
+        <v>42211</v>
       </c>
       <c r="B195">
         <v>0</v>
@@ -1988,7 +1988,7 @@
     </row>
     <row r="196">
       <c r="A196" s="2">
-        <v>42216</v>
+        <v>42218</v>
       </c>
       <c r="B196">
         <v>0</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="197">
       <c r="A197" s="2">
-        <v>42223</v>
+        <v>42225</v>
       </c>
       <c r="B197">
         <v>0</v>
@@ -2004,7 +2004,7 @@
     </row>
     <row r="198">
       <c r="A198" s="2">
-        <v>42230</v>
+        <v>42232</v>
       </c>
       <c r="B198">
         <v>0</v>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="199">
       <c r="A199" s="2">
-        <v>42237</v>
+        <v>42239</v>
       </c>
       <c r="B199">
         <v>0</v>
@@ -2020,7 +2020,7 @@
     </row>
     <row r="200">
       <c r="A200" s="2">
-        <v>42244</v>
+        <v>42246</v>
       </c>
       <c r="B200">
         <v>0</v>
@@ -2028,7 +2028,7 @@
     </row>
     <row r="201">
       <c r="A201" s="2">
-        <v>42251</v>
+        <v>42253</v>
       </c>
       <c r="B201">
         <v>0</v>
@@ -2036,7 +2036,7 @@
     </row>
     <row r="202">
       <c r="A202" s="2">
-        <v>42258</v>
+        <v>42260</v>
       </c>
       <c r="B202">
         <v>0</v>
@@ -2044,7 +2044,7 @@
     </row>
     <row r="203">
       <c r="A203" s="2">
-        <v>42265</v>
+        <v>42267</v>
       </c>
       <c r="B203">
         <v>0</v>
@@ -2052,7 +2052,7 @@
     </row>
     <row r="204">
       <c r="A204" s="2">
-        <v>42272</v>
+        <v>42274</v>
       </c>
       <c r="B204">
         <v>0</v>
@@ -2060,7 +2060,7 @@
     </row>
     <row r="205">
       <c r="A205" s="2">
-        <v>42279</v>
+        <v>42281</v>
       </c>
       <c r="B205">
         <v>0</v>
@@ -2068,7 +2068,7 @@
     </row>
     <row r="206">
       <c r="A206" s="2">
-        <v>42286</v>
+        <v>42288</v>
       </c>
       <c r="B206">
         <v>0</v>
@@ -2076,7 +2076,7 @@
     </row>
     <row r="207">
       <c r="A207" s="2">
-        <v>42293</v>
+        <v>42295</v>
       </c>
       <c r="B207">
         <v>0</v>
@@ -2084,39 +2084,39 @@
     </row>
     <row r="208">
       <c r="A208" s="2">
-        <v>42300</v>
+        <v>42302</v>
       </c>
       <c r="B208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2">
-        <v>42303</v>
+        <v>42309</v>
       </c>
       <c r="B209">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2">
-        <v>42307</v>
+        <v>42316</v>
       </c>
       <c r="B210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2">
-        <v>42310</v>
+        <v>42323</v>
       </c>
       <c r="B211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2">
-        <v>42314</v>
+        <v>42330</v>
       </c>
       <c r="B212">
         <v>0</v>
@@ -2124,15 +2124,15 @@
     </row>
     <row r="213">
       <c r="A213" s="2">
-        <v>42321</v>
+        <v>42337</v>
       </c>
       <c r="B213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2">
-        <v>42328</v>
+        <v>42344</v>
       </c>
       <c r="B214">
         <v>0</v>
@@ -2140,7 +2140,7 @@
     </row>
     <row r="215">
       <c r="A215" s="2">
-        <v>42335</v>
+        <v>42351</v>
       </c>
       <c r="B215">
         <v>0</v>
@@ -2148,15 +2148,15 @@
     </row>
     <row r="216">
       <c r="A216" s="2">
-        <v>42338</v>
+        <v>42358</v>
       </c>
       <c r="B216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2">
-        <v>42342</v>
+        <v>42365</v>
       </c>
       <c r="B217">
         <v>0</v>
@@ -2164,7 +2164,7 @@
     </row>
     <row r="218">
       <c r="A218" s="2">
-        <v>42349</v>
+        <v>42372</v>
       </c>
       <c r="B218">
         <v>0</v>
@@ -2172,7 +2172,7 @@
     </row>
     <row r="219">
       <c r="A219" s="2">
-        <v>42356</v>
+        <v>42379</v>
       </c>
       <c r="B219">
         <v>0</v>
@@ -2180,23 +2180,23 @@
     </row>
     <row r="220">
       <c r="A220" s="2">
-        <v>42363</v>
+        <v>42386</v>
       </c>
       <c r="B220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2">
-        <v>42370</v>
+        <v>42393</v>
       </c>
       <c r="B221">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2">
-        <v>42377</v>
+        <v>42400</v>
       </c>
       <c r="B222">
         <v>0</v>
@@ -2204,47 +2204,47 @@
     </row>
     <row r="223">
       <c r="A223" s="2">
-        <v>42384</v>
+        <v>42407</v>
       </c>
       <c r="B223">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2">
-        <v>42387</v>
+        <v>42414</v>
       </c>
       <c r="B224">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2">
-        <v>42391</v>
+        <v>42421</v>
       </c>
       <c r="B225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2">
-        <v>42394</v>
+        <v>42428</v>
       </c>
       <c r="B226">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2">
-        <v>42398</v>
+        <v>42435</v>
       </c>
       <c r="B227">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2">
-        <v>42405</v>
+        <v>42442</v>
       </c>
       <c r="B228">
         <v>0</v>
@@ -2252,7 +2252,7 @@
     </row>
     <row r="229">
       <c r="A229" s="2">
-        <v>42408</v>
+        <v>42449</v>
       </c>
       <c r="B229">
         <v>3</v>
@@ -2260,7 +2260,7 @@
     </row>
     <row r="230">
       <c r="A230" s="2">
-        <v>42412</v>
+        <v>42456</v>
       </c>
       <c r="B230">
         <v>0</v>
@@ -2268,47 +2268,47 @@
     </row>
     <row r="231">
       <c r="A231" s="2">
-        <v>42415</v>
+        <v>42463</v>
       </c>
       <c r="B231">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2">
-        <v>42419</v>
+        <v>42470</v>
       </c>
       <c r="B232">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2">
-        <v>42422</v>
+        <v>42477</v>
       </c>
       <c r="B233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2">
-        <v>42426</v>
+        <v>42484</v>
       </c>
       <c r="B234">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2">
-        <v>42429</v>
+        <v>42491</v>
       </c>
       <c r="B235">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2">
-        <v>42433</v>
+        <v>42498</v>
       </c>
       <c r="B236">
         <v>0</v>
@@ -2316,15 +2316,15 @@
     </row>
     <row r="237">
       <c r="A237" s="2">
-        <v>42436</v>
+        <v>42505</v>
       </c>
       <c r="B237">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2">
-        <v>42440</v>
+        <v>42512</v>
       </c>
       <c r="B238">
         <v>0</v>
@@ -2332,7 +2332,7 @@
     </row>
     <row r="239">
       <c r="A239" s="2">
-        <v>42447</v>
+        <v>42519</v>
       </c>
       <c r="B239">
         <v>0</v>
@@ -2340,15 +2340,15 @@
     </row>
     <row r="240">
       <c r="A240" s="2">
-        <v>42450</v>
+        <v>42526</v>
       </c>
       <c r="B240">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2">
-        <v>42454</v>
+        <v>42533</v>
       </c>
       <c r="B241">
         <v>0</v>
@@ -2356,7 +2356,7 @@
     </row>
     <row r="242">
       <c r="A242" s="2">
-        <v>42461</v>
+        <v>42540</v>
       </c>
       <c r="B242">
         <v>0</v>
@@ -2364,15 +2364,15 @@
     </row>
     <row r="243">
       <c r="A243" s="2">
-        <v>42464</v>
+        <v>42547</v>
       </c>
       <c r="B243">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2">
-        <v>42468</v>
+        <v>42554</v>
       </c>
       <c r="B244">
         <v>0</v>
@@ -2380,15 +2380,15 @@
     </row>
     <row r="245">
       <c r="A245" s="2">
-        <v>42471</v>
+        <v>42561</v>
       </c>
       <c r="B245">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2">
-        <v>42475</v>
+        <v>42568</v>
       </c>
       <c r="B246">
         <v>0</v>
@@ -2396,15 +2396,15 @@
     </row>
     <row r="247">
       <c r="A247" s="2">
-        <v>42478</v>
+        <v>42575</v>
       </c>
       <c r="B247">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2">
-        <v>42482</v>
+        <v>42582</v>
       </c>
       <c r="B248">
         <v>0</v>
@@ -2412,31 +2412,31 @@
     </row>
     <row r="249">
       <c r="A249" s="2">
-        <v>42485</v>
+        <v>42589</v>
       </c>
       <c r="B249">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2">
-        <v>42489</v>
+        <v>42596</v>
       </c>
       <c r="B250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2">
-        <v>42492</v>
+        <v>42603</v>
       </c>
       <c r="B251">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2">
-        <v>42496</v>
+        <v>42610</v>
       </c>
       <c r="B252">
         <v>0</v>
@@ -2444,7 +2444,7 @@
     </row>
     <row r="253">
       <c r="A253" s="2">
-        <v>42503</v>
+        <v>42617</v>
       </c>
       <c r="B253">
         <v>0</v>
@@ -2452,15 +2452,15 @@
     </row>
     <row r="254">
       <c r="A254" s="2">
-        <v>42510</v>
+        <v>42624</v>
       </c>
       <c r="B254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2">
-        <v>42517</v>
+        <v>42631</v>
       </c>
       <c r="B255">
         <v>0</v>
@@ -2468,15 +2468,15 @@
     </row>
     <row r="256">
       <c r="A256" s="2">
-        <v>42524</v>
+        <v>42638</v>
       </c>
       <c r="B256">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2">
-        <v>42531</v>
+        <v>42645</v>
       </c>
       <c r="B257">
         <v>0</v>
@@ -2484,7 +2484,7 @@
     </row>
     <row r="258">
       <c r="A258" s="2">
-        <v>42538</v>
+        <v>42652</v>
       </c>
       <c r="B258">
         <v>0</v>
@@ -2492,47 +2492,47 @@
     </row>
     <row r="259">
       <c r="A259" s="2">
-        <v>42545</v>
+        <v>42659</v>
       </c>
       <c r="B259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2">
-        <v>42552</v>
+        <v>42666</v>
       </c>
       <c r="B260">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2">
-        <v>42559</v>
+        <v>42673</v>
       </c>
       <c r="B261">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2">
-        <v>42566</v>
+        <v>42680</v>
       </c>
       <c r="B262">
-        <v>0</v>
+        <v>112</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2">
-        <v>42573</v>
+        <v>42687</v>
       </c>
       <c r="B263">
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2">
-        <v>42580</v>
+        <v>42694</v>
       </c>
       <c r="B264">
         <v>0</v>
@@ -2540,15 +2540,15 @@
     </row>
     <row r="265">
       <c r="A265" s="2">
-        <v>42587</v>
+        <v>42701</v>
       </c>
       <c r="B265">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2">
-        <v>42590</v>
+        <v>42708</v>
       </c>
       <c r="B266">
         <v>1</v>
@@ -2556,7 +2556,7 @@
     </row>
     <row r="267">
       <c r="A267" s="2">
-        <v>42594</v>
+        <v>42715</v>
       </c>
       <c r="B267">
         <v>0</v>
@@ -2564,23 +2564,23 @@
     </row>
     <row r="268">
       <c r="A268" s="2">
-        <v>42597</v>
+        <v>42722</v>
       </c>
       <c r="B268">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2">
-        <v>42601</v>
+        <v>42729</v>
       </c>
       <c r="B269">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2">
-        <v>42608</v>
+        <v>42736</v>
       </c>
       <c r="B270">
         <v>0</v>
@@ -2588,151 +2588,151 @@
     </row>
     <row r="271">
       <c r="A271" s="2">
-        <v>42615</v>
+        <v>42743</v>
       </c>
       <c r="B271">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2">
-        <v>42622</v>
+        <v>42750</v>
       </c>
       <c r="B272">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2">
-        <v>42625</v>
+        <v>42757</v>
       </c>
       <c r="B273">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2">
-        <v>42629</v>
+        <v>42764</v>
       </c>
       <c r="B274">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2">
-        <v>42636</v>
+        <v>42771</v>
       </c>
       <c r="B275">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2">
-        <v>42639</v>
+        <v>42778</v>
       </c>
       <c r="B276">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2">
-        <v>42643</v>
+        <v>42785</v>
       </c>
       <c r="B277">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2">
-        <v>42650</v>
+        <v>42792</v>
       </c>
       <c r="B278">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2">
-        <v>42657</v>
+        <v>42799</v>
       </c>
       <c r="B279">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2">
-        <v>42660</v>
+        <v>42806</v>
       </c>
       <c r="B280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2">
-        <v>42664</v>
+        <v>42813</v>
       </c>
       <c r="B281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2">
-        <v>42667</v>
+        <v>42820</v>
       </c>
       <c r="B282">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2">
-        <v>42671</v>
+        <v>42827</v>
       </c>
       <c r="B283">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2">
-        <v>42674</v>
+        <v>42834</v>
       </c>
       <c r="B284">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2">
-        <v>42678</v>
+        <v>42841</v>
       </c>
       <c r="B285">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2">
-        <v>42681</v>
+        <v>42848</v>
       </c>
       <c r="B286">
-        <v>115</v>
+        <v>5</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2">
-        <v>42685</v>
+        <v>42855</v>
       </c>
       <c r="B287">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2">
-        <v>42688</v>
+        <v>42862</v>
       </c>
       <c r="B288">
-        <v>63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2">
-        <v>42692</v>
+        <v>42869</v>
       </c>
       <c r="B289">
         <v>0</v>
@@ -2740,23 +2740,23 @@
     </row>
     <row r="290">
       <c r="A290" s="2">
-        <v>42699</v>
+        <v>42876</v>
       </c>
       <c r="B290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2">
-        <v>42702</v>
+        <v>42883</v>
       </c>
       <c r="B291">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2">
-        <v>42706</v>
+        <v>42890</v>
       </c>
       <c r="B292">
         <v>0</v>
@@ -2764,15 +2764,15 @@
     </row>
     <row r="293">
       <c r="A293" s="2">
-        <v>42709</v>
+        <v>42897</v>
       </c>
       <c r="B293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2">
-        <v>42713</v>
+        <v>42904</v>
       </c>
       <c r="B294">
         <v>0</v>
@@ -2780,7 +2780,7 @@
     </row>
     <row r="295">
       <c r="A295" s="2">
-        <v>42720</v>
+        <v>42911</v>
       </c>
       <c r="B295">
         <v>0</v>
@@ -2788,7 +2788,7 @@
     </row>
     <row r="296">
       <c r="A296" s="2">
-        <v>42727</v>
+        <v>42918</v>
       </c>
       <c r="B296">
         <v>0</v>
@@ -2796,15 +2796,15 @@
     </row>
     <row r="297">
       <c r="A297" s="2">
-        <v>42730</v>
+        <v>42925</v>
       </c>
       <c r="B297">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2">
-        <v>42734</v>
+        <v>42932</v>
       </c>
       <c r="B298">
         <v>0</v>
@@ -2812,7 +2812,7 @@
     </row>
     <row r="299">
       <c r="A299" s="2">
-        <v>42741</v>
+        <v>42939</v>
       </c>
       <c r="B299">
         <v>0</v>
@@ -2820,15 +2820,15 @@
     </row>
     <row r="300">
       <c r="A300" s="2">
-        <v>42744</v>
+        <v>42946</v>
       </c>
       <c r="B300">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2">
-        <v>42748</v>
+        <v>42953</v>
       </c>
       <c r="B301">
         <v>0</v>
@@ -2836,15 +2836,15 @@
     </row>
     <row r="302">
       <c r="A302" s="2">
-        <v>42751</v>
+        <v>42960</v>
       </c>
       <c r="B302">
-        <v>50</v>
+        <v>7</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2">
-        <v>42755</v>
+        <v>42967</v>
       </c>
       <c r="B303">
         <v>0</v>
@@ -2852,31 +2852,31 @@
     </row>
     <row r="304">
       <c r="A304" s="2">
-        <v>42758</v>
+        <v>42974</v>
       </c>
       <c r="B304">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2">
-        <v>42762</v>
+        <v>42981</v>
       </c>
       <c r="B305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2">
-        <v>42765</v>
+        <v>42988</v>
       </c>
       <c r="B306">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2">
-        <v>42769</v>
+        <v>42995</v>
       </c>
       <c r="B307">
         <v>0</v>
@@ -2884,31 +2884,31 @@
     </row>
     <row r="308">
       <c r="A308" s="2">
-        <v>42772</v>
+        <v>43002</v>
       </c>
       <c r="B308">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2">
-        <v>42776</v>
+        <v>43009</v>
       </c>
       <c r="B309">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2">
-        <v>42779</v>
+        <v>43016</v>
       </c>
       <c r="B310">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2">
-        <v>42783</v>
+        <v>43023</v>
       </c>
       <c r="B311">
         <v>0</v>
@@ -2916,31 +2916,31 @@
     </row>
     <row r="312">
       <c r="A312" s="2">
-        <v>42786</v>
+        <v>43030</v>
       </c>
       <c r="B312">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2">
-        <v>42790</v>
+        <v>43037</v>
       </c>
       <c r="B313">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2">
-        <v>42793</v>
+        <v>43044</v>
       </c>
       <c r="B314">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2">
-        <v>42797</v>
+        <v>43051</v>
       </c>
       <c r="B315">
         <v>0</v>
@@ -2948,23 +2948,23 @@
     </row>
     <row r="316">
       <c r="A316" s="2">
-        <v>42800</v>
+        <v>43058</v>
       </c>
       <c r="B316">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2">
-        <v>42804</v>
+        <v>43065</v>
       </c>
       <c r="B317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2">
-        <v>42811</v>
+        <v>43072</v>
       </c>
       <c r="B318">
         <v>0</v>
@@ -2972,15 +2972,15 @@
     </row>
     <row r="319">
       <c r="A319" s="2">
-        <v>42814</v>
+        <v>43079</v>
       </c>
       <c r="B319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2">
-        <v>42818</v>
+        <v>43086</v>
       </c>
       <c r="B320">
         <v>0</v>
@@ -2988,7 +2988,7 @@
     </row>
     <row r="321">
       <c r="A321" s="2">
-        <v>42825</v>
+        <v>43093</v>
       </c>
       <c r="B321">
         <v>0</v>
@@ -2996,31 +2996,31 @@
     </row>
     <row r="322">
       <c r="A322" s="2">
-        <v>42828</v>
+        <v>43100</v>
       </c>
       <c r="B322">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2">
-        <v>42832</v>
+        <v>43107</v>
       </c>
       <c r="B323">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2">
-        <v>42835</v>
+        <v>43114</v>
       </c>
       <c r="B324">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2">
-        <v>42839</v>
+        <v>43121</v>
       </c>
       <c r="B325">
         <v>0</v>
@@ -3028,31 +3028,31 @@
     </row>
     <row r="326">
       <c r="A326" s="2">
-        <v>42842</v>
+        <v>43128</v>
       </c>
       <c r="B326">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2">
-        <v>42846</v>
+        <v>43135</v>
       </c>
       <c r="B327">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2">
-        <v>42849</v>
+        <v>43142</v>
       </c>
       <c r="B328">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2">
-        <v>42853</v>
+        <v>43149</v>
       </c>
       <c r="B329">
         <v>0</v>
@@ -3060,15 +3060,15 @@
     </row>
     <row r="330">
       <c r="A330" s="2">
-        <v>42856</v>
+        <v>43156</v>
       </c>
       <c r="B330">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2">
-        <v>42860</v>
+        <v>43163</v>
       </c>
       <c r="B331">
         <v>0</v>
@@ -3076,7 +3076,7 @@
     </row>
     <row r="332">
       <c r="A332" s="2">
-        <v>42867</v>
+        <v>43170</v>
       </c>
       <c r="B332">
         <v>0</v>
@@ -3084,15 +3084,15 @@
     </row>
     <row r="333">
       <c r="A333" s="2">
-        <v>42870</v>
+        <v>43177</v>
       </c>
       <c r="B333">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2">
-        <v>42874</v>
+        <v>43184</v>
       </c>
       <c r="B334">
         <v>0</v>
@@ -3100,7 +3100,7 @@
     </row>
     <row r="335">
       <c r="A335" s="2">
-        <v>42881</v>
+        <v>43191</v>
       </c>
       <c r="B335">
         <v>0</v>
@@ -3108,7 +3108,7 @@
     </row>
     <row r="336">
       <c r="A336" s="2">
-        <v>42888</v>
+        <v>43198</v>
       </c>
       <c r="B336">
         <v>0</v>
@@ -3116,7 +3116,7 @@
     </row>
     <row r="337">
       <c r="A337" s="2">
-        <v>42895</v>
+        <v>43205</v>
       </c>
       <c r="B337">
         <v>0</v>
@@ -3124,7 +3124,7 @@
     </row>
     <row r="338">
       <c r="A338" s="2">
-        <v>42902</v>
+        <v>43212</v>
       </c>
       <c r="B338">
         <v>0</v>
@@ -3132,7 +3132,7 @@
     </row>
     <row r="339">
       <c r="A339" s="2">
-        <v>42909</v>
+        <v>43219</v>
       </c>
       <c r="B339">
         <v>0</v>
@@ -3140,7 +3140,7 @@
     </row>
     <row r="340">
       <c r="A340" s="2">
-        <v>42916</v>
+        <v>43226</v>
       </c>
       <c r="B340">
         <v>0</v>
@@ -3148,7 +3148,7 @@
     </row>
     <row r="341">
       <c r="A341" s="2">
-        <v>42923</v>
+        <v>43233</v>
       </c>
       <c r="B341">
         <v>0</v>
@@ -3156,7 +3156,7 @@
     </row>
     <row r="342">
       <c r="A342" s="2">
-        <v>42930</v>
+        <v>43240</v>
       </c>
       <c r="B342">
         <v>0</v>
@@ -3164,7 +3164,7 @@
     </row>
     <row r="343">
       <c r="A343" s="2">
-        <v>42937</v>
+        <v>43247</v>
       </c>
       <c r="B343">
         <v>0</v>
@@ -3172,7 +3172,7 @@
     </row>
     <row r="344">
       <c r="A344" s="2">
-        <v>42944</v>
+        <v>43254</v>
       </c>
       <c r="B344">
         <v>0</v>
@@ -3180,7 +3180,7 @@
     </row>
     <row r="345">
       <c r="A345" s="2">
-        <v>42951</v>
+        <v>43261</v>
       </c>
       <c r="B345">
         <v>0</v>
@@ -3188,506 +3188,18 @@
     </row>
     <row r="346">
       <c r="A346" s="2">
-        <v>42954</v>
+        <v>43268</v>
       </c>
       <c r="B346">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2">
-        <v>42958</v>
+        <v>43275</v>
       </c>
       <c r="B347">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" s="2">
-        <v>42961</v>
-      </c>
-      <c r="B348">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" s="2">
-        <v>42965</v>
-      </c>
-      <c r="B349">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" s="2">
-        <v>42972</v>
-      </c>
-      <c r="B350">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" s="2">
-        <v>42979</v>
-      </c>
-      <c r="B351">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" s="2">
-        <v>42982</v>
-      </c>
-      <c r="B352">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" s="2">
-        <v>42986</v>
-      </c>
-      <c r="B353">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" s="2">
-        <v>42989</v>
-      </c>
-      <c r="B354">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" s="2">
-        <v>42993</v>
-      </c>
-      <c r="B355">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" s="2">
-        <v>42996</v>
-      </c>
-      <c r="B356">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" s="2">
-        <v>43000</v>
-      </c>
-      <c r="B357">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" s="2">
-        <v>43003</v>
-      </c>
-      <c r="B358">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" s="2">
-        <v>43007</v>
-      </c>
-      <c r="B359">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" s="2">
-        <v>43010</v>
-      </c>
-      <c r="B360">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" s="2">
-        <v>43014</v>
-      </c>
-      <c r="B361">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" s="2">
-        <v>43017</v>
-      </c>
-      <c r="B362">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" s="2">
-        <v>43021</v>
-      </c>
-      <c r="B363">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" s="2">
-        <v>43028</v>
-      </c>
-      <c r="B364">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" s="2">
-        <v>43035</v>
-      </c>
-      <c r="B365">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" s="2">
-        <v>43038</v>
-      </c>
-      <c r="B366">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" s="2">
-        <v>43042</v>
-      </c>
-      <c r="B367">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" s="2">
-        <v>43045</v>
-      </c>
-      <c r="B368">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" s="2">
-        <v>43049</v>
-      </c>
-      <c r="B369">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" s="2">
-        <v>43056</v>
-      </c>
-      <c r="B370">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" s="2">
-        <v>43063</v>
-      </c>
-      <c r="B371">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" s="2">
-        <v>43066</v>
-      </c>
-      <c r="B372">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" s="2">
-        <v>43070</v>
-      </c>
-      <c r="B373">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" s="2">
-        <v>43077</v>
-      </c>
-      <c r="B374">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" s="2">
-        <v>43084</v>
-      </c>
-      <c r="B375">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" s="2">
-        <v>43091</v>
-      </c>
-      <c r="B376">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" s="2">
-        <v>43098</v>
-      </c>
-      <c r="B377">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" s="2">
-        <v>43101</v>
-      </c>
-      <c r="B378">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" s="2">
-        <v>43105</v>
-      </c>
-      <c r="B379">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" s="2">
-        <v>43112</v>
-      </c>
-      <c r="B380">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" s="2">
-        <v>43115</v>
-      </c>
-      <c r="B381">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" s="2">
-        <v>43119</v>
-      </c>
-      <c r="B382">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" s="2">
-        <v>43126</v>
-      </c>
-      <c r="B383">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" s="2">
-        <v>43129</v>
-      </c>
-      <c r="B384">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" s="2">
-        <v>43133</v>
-      </c>
-      <c r="B385">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" s="2">
-        <v>43136</v>
-      </c>
-      <c r="B386">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" s="2">
-        <v>43140</v>
-      </c>
-      <c r="B387">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" s="2">
-        <v>43147</v>
-      </c>
-      <c r="B388">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" s="2">
-        <v>43154</v>
-      </c>
-      <c r="B389">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" s="2">
-        <v>43161</v>
-      </c>
-      <c r="B390">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" s="2">
-        <v>43168</v>
-      </c>
-      <c r="B391">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" s="2">
-        <v>43175</v>
-      </c>
-      <c r="B392">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" s="2">
-        <v>43182</v>
-      </c>
-      <c r="B393">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" s="2">
-        <v>43189</v>
-      </c>
-      <c r="B394">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" s="2">
-        <v>43196</v>
-      </c>
-      <c r="B395">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" s="2">
-        <v>43203</v>
-      </c>
-      <c r="B396">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" s="2">
-        <v>43210</v>
-      </c>
-      <c r="B397">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" s="2">
-        <v>43217</v>
-      </c>
-      <c r="B398">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399" s="2">
-        <v>43224</v>
-      </c>
-      <c r="B399">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="400">
-      <c r="A400" s="2">
-        <v>43231</v>
-      </c>
-      <c r="B400">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="401">
-      <c r="A401" s="2">
-        <v>43238</v>
-      </c>
-      <c r="B401">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="402">
-      <c r="A402" s="2">
-        <v>43245</v>
-      </c>
-      <c r="B402">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="403">
-      <c r="A403" s="2">
-        <v>43252</v>
-      </c>
-      <c r="B403">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="404">
-      <c r="A404" s="2">
-        <v>43259</v>
-      </c>
-      <c r="B404">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="405">
-      <c r="A405" s="2">
-        <v>43266</v>
-      </c>
-      <c r="B405">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="406">
-      <c r="A406" s="2">
-        <v>43273</v>
-      </c>
-      <c r="B406">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407" s="2">
-        <v>43276</v>
-      </c>
-      <c r="B407">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" s="2">
-        <v>43280</v>
-      </c>
-      <c r="B408">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3697,7 +3209,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B375"/>
+  <dimension ref="A1:B266"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3720,7 +3232,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>41372</v>
+        <v>41371</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -3728,7 +3240,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>41373</v>
+        <v>41378</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3736,7 +3248,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>41380</v>
+        <v>41385</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -3744,23 +3256,23 @@
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>41387</v>
+        <v>41392</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <v>41393</v>
+        <v>41399</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
-        <v>41394</v>
+        <v>41406</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -3768,7 +3280,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2">
-        <v>41401</v>
+        <v>41413</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -3776,7 +3288,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2">
-        <v>41408</v>
+        <v>41420</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -3784,7 +3296,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2">
-        <v>41415</v>
+        <v>41427</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -3792,7 +3304,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2">
-        <v>41422</v>
+        <v>41434</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -3800,7 +3312,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2">
-        <v>41429</v>
+        <v>41441</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -3808,7 +3320,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2">
-        <v>41436</v>
+        <v>41448</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -3816,7 +3328,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2">
-        <v>41443</v>
+        <v>41455</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -3824,7 +3336,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2">
-        <v>41450</v>
+        <v>41462</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -3832,15 +3344,15 @@
     </row>
     <row r="16">
       <c r="A16" s="2">
-        <v>41457</v>
+        <v>41469</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2">
-        <v>41464</v>
+        <v>41476</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -3848,15 +3360,15 @@
     </row>
     <row r="18">
       <c r="A18" s="2">
-        <v>41470</v>
+        <v>41483</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2">
-        <v>41471</v>
+        <v>41490</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -3864,7 +3376,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2">
-        <v>41478</v>
+        <v>41497</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -3872,7 +3384,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2">
-        <v>41485</v>
+        <v>41504</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3880,23 +3392,23 @@
     </row>
     <row r="22">
       <c r="A22" s="2">
-        <v>41492</v>
+        <v>41511</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2">
-        <v>41499</v>
+        <v>41518</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2">
-        <v>41506</v>
+        <v>41525</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3904,15 +3416,15 @@
     </row>
     <row r="25">
       <c r="A25" s="2">
-        <v>41512</v>
+        <v>41532</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2">
-        <v>41513</v>
+        <v>41539</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3920,7 +3432,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2">
-        <v>41519</v>
+        <v>41546</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -3928,31 +3440,31 @@
     </row>
     <row r="28">
       <c r="A28" s="2">
-        <v>41520</v>
+        <v>41553</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2">
-        <v>41527</v>
+        <v>41560</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2">
-        <v>41533</v>
+        <v>41567</v>
       </c>
       <c r="B30">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2">
-        <v>41534</v>
+        <v>41574</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -3960,15 +3472,15 @@
     </row>
     <row r="32">
       <c r="A32" s="2">
-        <v>41541</v>
+        <v>41581</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2">
-        <v>41547</v>
+        <v>41588</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -3976,31 +3488,31 @@
     </row>
     <row r="34">
       <c r="A34" s="2">
-        <v>41548</v>
+        <v>41595</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2">
-        <v>41554</v>
+        <v>41602</v>
       </c>
       <c r="B35">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2">
-        <v>41555</v>
+        <v>41609</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2">
-        <v>41562</v>
+        <v>41616</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -4008,7 +3520,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2">
-        <v>41569</v>
+        <v>41623</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -4016,7 +3528,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2">
-        <v>41576</v>
+        <v>41630</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -4024,31 +3536,31 @@
     </row>
     <row r="40">
       <c r="A40" s="2">
-        <v>41582</v>
+        <v>41637</v>
       </c>
       <c r="B40">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2">
-        <v>41583</v>
+        <v>41644</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2">
-        <v>41589</v>
+        <v>41651</v>
       </c>
       <c r="B42">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2">
-        <v>41590</v>
+        <v>41658</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -4056,15 +3568,15 @@
     </row>
     <row r="44">
       <c r="A44" s="2">
-        <v>41596</v>
+        <v>41665</v>
       </c>
       <c r="B44">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2">
-        <v>41597</v>
+        <v>41672</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -4072,15 +3584,15 @@
     </row>
     <row r="46">
       <c r="A46" s="2">
-        <v>41603</v>
+        <v>41679</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2">
-        <v>41604</v>
+        <v>41686</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -4088,15 +3600,15 @@
     </row>
     <row r="48">
       <c r="A48" s="2">
-        <v>41610</v>
+        <v>41693</v>
       </c>
       <c r="B48">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2">
-        <v>41611</v>
+        <v>41700</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -4104,23 +3616,23 @@
     </row>
     <row r="50">
       <c r="A50" s="2">
-        <v>41618</v>
+        <v>41707</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2">
-        <v>41625</v>
+        <v>41714</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2">
-        <v>41632</v>
+        <v>41721</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -4128,23 +3640,23 @@
     </row>
     <row r="53">
       <c r="A53" s="2">
-        <v>41638</v>
+        <v>41728</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2">
-        <v>41639</v>
+        <v>41735</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2">
-        <v>41645</v>
+        <v>41742</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -4152,7 +3664,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2">
-        <v>41646</v>
+        <v>41749</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -4160,15 +3672,15 @@
     </row>
     <row r="57">
       <c r="A57" s="2">
-        <v>41653</v>
+        <v>41756</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2">
-        <v>41660</v>
+        <v>41763</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -4176,15 +3688,15 @@
     </row>
     <row r="59">
       <c r="A59" s="2">
-        <v>41666</v>
+        <v>41770</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2">
-        <v>41667</v>
+        <v>41777</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -4192,7 +3704,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2">
-        <v>41674</v>
+        <v>41784</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -4200,15 +3712,15 @@
     </row>
     <row r="62">
       <c r="A62" s="2">
-        <v>41680</v>
+        <v>41791</v>
       </c>
       <c r="B62">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2">
-        <v>41681</v>
+        <v>41798</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -4216,7 +3728,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2">
-        <v>41688</v>
+        <v>41805</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -4224,7 +3736,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2">
-        <v>41695</v>
+        <v>41812</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -4232,23 +3744,23 @@
     </row>
     <row r="66">
       <c r="A66" s="2">
-        <v>41702</v>
+        <v>41819</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2">
-        <v>41708</v>
+        <v>41826</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2">
-        <v>41709</v>
+        <v>41833</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -4256,15 +3768,15 @@
     </row>
     <row r="69">
       <c r="A69" s="2">
-        <v>41715</v>
+        <v>41840</v>
       </c>
       <c r="B69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2">
-        <v>41716</v>
+        <v>41847</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -4272,7 +3784,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2">
-        <v>41723</v>
+        <v>41854</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -4280,15 +3792,15 @@
     </row>
     <row r="72">
       <c r="A72" s="2">
-        <v>41729</v>
+        <v>41861</v>
       </c>
       <c r="B72">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2">
-        <v>41730</v>
+        <v>41868</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -4296,15 +3808,15 @@
     </row>
     <row r="74">
       <c r="A74" s="2">
-        <v>41736</v>
+        <v>41875</v>
       </c>
       <c r="B74">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2">
-        <v>41737</v>
+        <v>41882</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -4312,23 +3824,23 @@
     </row>
     <row r="76">
       <c r="A76" s="2">
-        <v>41743</v>
+        <v>41889</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2">
-        <v>41744</v>
+        <v>41896</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2">
-        <v>41751</v>
+        <v>41903</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -4336,23 +3848,23 @@
     </row>
     <row r="79">
       <c r="A79" s="2">
-        <v>41757</v>
+        <v>41910</v>
       </c>
       <c r="B79">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2">
-        <v>41758</v>
+        <v>41917</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2">
-        <v>41765</v>
+        <v>41924</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -4360,15 +3872,15 @@
     </row>
     <row r="82">
       <c r="A82" s="2">
-        <v>41772</v>
+        <v>41931</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2">
-        <v>41779</v>
+        <v>41938</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -4376,7 +3888,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2">
-        <v>41786</v>
+        <v>41945</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -4384,7 +3896,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2">
-        <v>41793</v>
+        <v>41952</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -4392,15 +3904,15 @@
     </row>
     <row r="86">
       <c r="A86" s="2">
-        <v>41800</v>
+        <v>41959</v>
       </c>
       <c r="B86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2">
-        <v>41807</v>
+        <v>41966</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -4408,23 +3920,23 @@
     </row>
     <row r="88">
       <c r="A88" s="2">
-        <v>41814</v>
+        <v>41973</v>
       </c>
       <c r="B88">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2">
-        <v>41820</v>
+        <v>41980</v>
       </c>
       <c r="B89">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2">
-        <v>41821</v>
+        <v>41987</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -4432,7 +3944,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2">
-        <v>41828</v>
+        <v>41994</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -4440,7 +3952,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2">
-        <v>41835</v>
+        <v>42001</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -4448,7 +3960,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2">
-        <v>41842</v>
+        <v>42008</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -4456,7 +3968,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2">
-        <v>41849</v>
+        <v>42015</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -4464,7 +3976,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2">
-        <v>41856</v>
+        <v>42022</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -4472,7 +3984,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2">
-        <v>41863</v>
+        <v>42029</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -4480,23 +3992,23 @@
     </row>
     <row r="97">
       <c r="A97" s="2">
-        <v>41870</v>
+        <v>42036</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2">
-        <v>41877</v>
+        <v>42043</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2">
-        <v>41884</v>
+        <v>42050</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -4504,7 +4016,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2">
-        <v>41891</v>
+        <v>42057</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -4512,15 +4024,15 @@
     </row>
     <row r="101">
       <c r="A101" s="2">
-        <v>41897</v>
+        <v>42064</v>
       </c>
       <c r="B101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2">
-        <v>41898</v>
+        <v>42071</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -4528,7 +4040,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2">
-        <v>41905</v>
+        <v>42078</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -4536,39 +4048,39 @@
     </row>
     <row r="104">
       <c r="A104" s="2">
-        <v>41911</v>
+        <v>42085</v>
       </c>
       <c r="B104">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2">
-        <v>41912</v>
+        <v>42092</v>
       </c>
       <c r="B105">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2">
-        <v>41918</v>
+        <v>42099</v>
       </c>
       <c r="B106">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2">
-        <v>41919</v>
+        <v>42106</v>
       </c>
       <c r="B107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2">
-        <v>41926</v>
+        <v>42113</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -4576,15 +4088,15 @@
     </row>
     <row r="109">
       <c r="A109" s="2">
-        <v>41932</v>
+        <v>42120</v>
       </c>
       <c r="B109">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2">
-        <v>41933</v>
+        <v>42127</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -4592,7 +4104,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2">
-        <v>41940</v>
+        <v>42134</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -4600,7 +4112,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2">
-        <v>41947</v>
+        <v>42141</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -4608,23 +4120,23 @@
     </row>
     <row r="113">
       <c r="A113" s="2">
-        <v>41954</v>
+        <v>42148</v>
       </c>
       <c r="B113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2">
-        <v>41960</v>
+        <v>42155</v>
       </c>
       <c r="B114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2">
-        <v>41961</v>
+        <v>42162</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -4632,7 +4144,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2">
-        <v>41968</v>
+        <v>42169</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -4640,15 +4152,15 @@
     </row>
     <row r="117">
       <c r="A117" s="2">
-        <v>41974</v>
+        <v>42176</v>
       </c>
       <c r="B117">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2">
-        <v>41975</v>
+        <v>42183</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -4656,7 +4168,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2">
-        <v>41982</v>
+        <v>42190</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -4664,7 +4176,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2">
-        <v>41989</v>
+        <v>42197</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -4672,7 +4184,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2">
-        <v>41996</v>
+        <v>42204</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -4680,7 +4192,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2">
-        <v>42003</v>
+        <v>42211</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -4688,7 +4200,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2">
-        <v>42010</v>
+        <v>42218</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -4696,7 +4208,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2">
-        <v>42017</v>
+        <v>42225</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -4704,7 +4216,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2">
-        <v>42024</v>
+        <v>42232</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -4712,7 +4224,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2">
-        <v>42031</v>
+        <v>42239</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -4720,15 +4232,15 @@
     </row>
     <row r="127">
       <c r="A127" s="2">
-        <v>42037</v>
+        <v>42246</v>
       </c>
       <c r="B127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2">
-        <v>42038</v>
+        <v>42253</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -4736,7 +4248,7 @@
     </row>
     <row r="129">
       <c r="A129" s="2">
-        <v>42044</v>
+        <v>42260</v>
       </c>
       <c r="B129">
         <v>1</v>
@@ -4744,7 +4256,7 @@
     </row>
     <row r="130">
       <c r="A130" s="2">
-        <v>42045</v>
+        <v>42267</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -4752,7 +4264,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2">
-        <v>42052</v>
+        <v>42274</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -4760,7 +4272,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2">
-        <v>42059</v>
+        <v>42281</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -4768,31 +4280,31 @@
     </row>
     <row r="133">
       <c r="A133" s="2">
-        <v>42066</v>
+        <v>42288</v>
       </c>
       <c r="B133">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2">
-        <v>42073</v>
+        <v>42295</v>
       </c>
       <c r="B134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2">
-        <v>42080</v>
+        <v>42302</v>
       </c>
       <c r="B135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2">
-        <v>42087</v>
+        <v>42309</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -4800,7 +4312,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2">
-        <v>42093</v>
+        <v>42316</v>
       </c>
       <c r="B137">
         <v>4</v>
@@ -4808,15 +4320,15 @@
     </row>
     <row r="138">
       <c r="A138" s="2">
-        <v>42094</v>
+        <v>42323</v>
       </c>
       <c r="B138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2">
-        <v>42100</v>
+        <v>42330</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -4824,23 +4336,23 @@
     </row>
     <row r="140">
       <c r="A140" s="2">
-        <v>42101</v>
+        <v>42337</v>
       </c>
       <c r="B140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2">
-        <v>42107</v>
+        <v>42344</v>
       </c>
       <c r="B141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2">
-        <v>42108</v>
+        <v>42351</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -4848,7 +4360,7 @@
     </row>
     <row r="143">
       <c r="A143" s="2">
-        <v>42115</v>
+        <v>42358</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -4856,15 +4368,15 @@
     </row>
     <row r="144">
       <c r="A144" s="2">
-        <v>42121</v>
+        <v>42365</v>
       </c>
       <c r="B144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2">
-        <v>42122</v>
+        <v>42372</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -4872,7 +4384,7 @@
     </row>
     <row r="146">
       <c r="A146" s="2">
-        <v>42129</v>
+        <v>42379</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -4880,23 +4392,23 @@
     </row>
     <row r="147">
       <c r="A147" s="2">
-        <v>42136</v>
+        <v>42386</v>
       </c>
       <c r="B147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2">
-        <v>42143</v>
+        <v>42393</v>
       </c>
       <c r="B148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2">
-        <v>42149</v>
+        <v>42400</v>
       </c>
       <c r="B149">
         <v>2</v>
@@ -4904,7 +4416,7 @@
     </row>
     <row r="150">
       <c r="A150" s="2">
-        <v>42150</v>
+        <v>42407</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -4912,31 +4424,31 @@
     </row>
     <row r="151">
       <c r="A151" s="2">
-        <v>42157</v>
+        <v>42414</v>
       </c>
       <c r="B151">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2">
-        <v>42164</v>
+        <v>42421</v>
       </c>
       <c r="B152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2">
-        <v>42171</v>
+        <v>42428</v>
       </c>
       <c r="B153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2">
-        <v>42178</v>
+        <v>42435</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -4944,7 +4456,7 @@
     </row>
     <row r="155">
       <c r="A155" s="2">
-        <v>42185</v>
+        <v>42442</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -4952,7 +4464,7 @@
     </row>
     <row r="156">
       <c r="A156" s="2">
-        <v>42192</v>
+        <v>42449</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -4960,7 +4472,7 @@
     </row>
     <row r="157">
       <c r="A157" s="2">
-        <v>42199</v>
+        <v>42456</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -4968,23 +4480,23 @@
     </row>
     <row r="158">
       <c r="A158" s="2">
-        <v>42206</v>
+        <v>42463</v>
       </c>
       <c r="B158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2">
-        <v>42213</v>
+        <v>42470</v>
       </c>
       <c r="B159">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2">
-        <v>42220</v>
+        <v>42477</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -4992,15 +4504,15 @@
     </row>
     <row r="161">
       <c r="A161" s="2">
-        <v>42227</v>
+        <v>42484</v>
       </c>
       <c r="B161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2">
-        <v>42234</v>
+        <v>42491</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -5008,7 +4520,7 @@
     </row>
     <row r="163">
       <c r="A163" s="2">
-        <v>42241</v>
+        <v>42498</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -5016,7 +4528,7 @@
     </row>
     <row r="164">
       <c r="A164" s="2">
-        <v>42248</v>
+        <v>42505</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -5024,7 +4536,7 @@
     </row>
     <row r="165">
       <c r="A165" s="2">
-        <v>42255</v>
+        <v>42512</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -5032,15 +4544,15 @@
     </row>
     <row r="166">
       <c r="A166" s="2">
-        <v>42261</v>
+        <v>42519</v>
       </c>
       <c r="B166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2">
-        <v>42262</v>
+        <v>42526</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -5048,7 +4560,7 @@
     </row>
     <row r="168">
       <c r="A168" s="2">
-        <v>42269</v>
+        <v>42533</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -5056,7 +4568,7 @@
     </row>
     <row r="169">
       <c r="A169" s="2">
-        <v>42276</v>
+        <v>42540</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -5064,7 +4576,7 @@
     </row>
     <row r="170">
       <c r="A170" s="2">
-        <v>42283</v>
+        <v>42547</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -5072,15 +4584,15 @@
     </row>
     <row r="171">
       <c r="A171" s="2">
-        <v>42289</v>
+        <v>42554</v>
       </c>
       <c r="B171">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2">
-        <v>42290</v>
+        <v>42561</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -5088,15 +4600,15 @@
     </row>
     <row r="173">
       <c r="A173" s="2">
-        <v>42296</v>
+        <v>42568</v>
       </c>
       <c r="B173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2">
-        <v>42297</v>
+        <v>42575</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -5104,15 +4616,15 @@
     </row>
     <row r="175">
       <c r="A175" s="2">
-        <v>42303</v>
+        <v>42582</v>
       </c>
       <c r="B175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2">
-        <v>42304</v>
+        <v>42589</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -5120,7 +4632,7 @@
     </row>
     <row r="177">
       <c r="A177" s="2">
-        <v>42311</v>
+        <v>42596</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -5128,15 +4640,15 @@
     </row>
     <row r="178">
       <c r="A178" s="2">
-        <v>42317</v>
+        <v>42603</v>
       </c>
       <c r="B178">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2">
-        <v>42318</v>
+        <v>42610</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -5144,15 +4656,15 @@
     </row>
     <row r="180">
       <c r="A180" s="2">
-        <v>42324</v>
+        <v>42617</v>
       </c>
       <c r="B180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2">
-        <v>42325</v>
+        <v>42624</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -5160,31 +4672,31 @@
     </row>
     <row r="182">
       <c r="A182" s="2">
-        <v>42331</v>
+        <v>42631</v>
       </c>
       <c r="B182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2">
-        <v>42332</v>
+        <v>42638</v>
       </c>
       <c r="B183">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2">
-        <v>42338</v>
+        <v>42645</v>
       </c>
       <c r="B184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2">
-        <v>42339</v>
+        <v>42652</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -5192,15 +4704,15 @@
     </row>
     <row r="186">
       <c r="A186" s="2">
-        <v>42346</v>
+        <v>42659</v>
       </c>
       <c r="B186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2">
-        <v>42353</v>
+        <v>42666</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -5208,55 +4720,55 @@
     </row>
     <row r="188">
       <c r="A188" s="2">
-        <v>42360</v>
+        <v>42673</v>
       </c>
       <c r="B188">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2">
-        <v>42367</v>
+        <v>42680</v>
       </c>
       <c r="B189">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2">
-        <v>42374</v>
+        <v>42687</v>
       </c>
       <c r="B190">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2">
-        <v>42381</v>
+        <v>42694</v>
       </c>
       <c r="B191">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2">
-        <v>42387</v>
+        <v>42701</v>
       </c>
       <c r="B192">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2">
-        <v>42388</v>
+        <v>42708</v>
       </c>
       <c r="B193">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2">
-        <v>42394</v>
+        <v>42715</v>
       </c>
       <c r="B194">
         <v>1</v>
@@ -5264,7 +4776,7 @@
     </row>
     <row r="195">
       <c r="A195" s="2">
-        <v>42395</v>
+        <v>42722</v>
       </c>
       <c r="B195">
         <v>0</v>
@@ -5272,183 +4784,183 @@
     </row>
     <row r="196">
       <c r="A196" s="2">
-        <v>42401</v>
+        <v>42729</v>
       </c>
       <c r="B196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2">
-        <v>42402</v>
+        <v>42736</v>
       </c>
       <c r="B197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2">
-        <v>42409</v>
+        <v>42743</v>
       </c>
       <c r="B198">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2">
-        <v>42415</v>
+        <v>42750</v>
       </c>
       <c r="B199">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2">
-        <v>42416</v>
+        <v>42757</v>
       </c>
       <c r="B200">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2">
-        <v>42422</v>
+        <v>42764</v>
       </c>
       <c r="B201">
-        <v>1</v>
+        <v>73</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2">
-        <v>42423</v>
+        <v>42771</v>
       </c>
       <c r="B202">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2">
-        <v>42429</v>
+        <v>42778</v>
       </c>
       <c r="B203">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2">
-        <v>42430</v>
+        <v>42785</v>
       </c>
       <c r="B204">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2">
-        <v>42437</v>
+        <v>42792</v>
       </c>
       <c r="B205">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2">
-        <v>42444</v>
+        <v>42799</v>
       </c>
       <c r="B206">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2">
-        <v>42451</v>
+        <v>42806</v>
       </c>
       <c r="B207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2">
-        <v>42458</v>
+        <v>42813</v>
       </c>
       <c r="B208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2">
-        <v>42464</v>
+        <v>42820</v>
       </c>
       <c r="B209">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2">
-        <v>42465</v>
+        <v>42827</v>
       </c>
       <c r="B210">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2">
-        <v>42471</v>
+        <v>42834</v>
       </c>
       <c r="B211">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2">
-        <v>42472</v>
+        <v>42841</v>
       </c>
       <c r="B212">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2">
-        <v>42479</v>
+        <v>42848</v>
       </c>
       <c r="B213">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2">
-        <v>42485</v>
+        <v>42855</v>
       </c>
       <c r="B214">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2">
-        <v>42486</v>
+        <v>42862</v>
       </c>
       <c r="B215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2">
-        <v>42493</v>
+        <v>42869</v>
       </c>
       <c r="B216">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2">
-        <v>42500</v>
+        <v>42876</v>
       </c>
       <c r="B217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2">
-        <v>42507</v>
+        <v>42883</v>
       </c>
       <c r="B218">
         <v>0</v>
@@ -5456,7 +4968,7 @@
     </row>
     <row r="219">
       <c r="A219" s="2">
-        <v>42514</v>
+        <v>42890</v>
       </c>
       <c r="B219">
         <v>0</v>
@@ -5464,7 +4976,7 @@
     </row>
     <row r="220">
       <c r="A220" s="2">
-        <v>42521</v>
+        <v>42897</v>
       </c>
       <c r="B220">
         <v>0</v>
@@ -5472,7 +4984,7 @@
     </row>
     <row r="221">
       <c r="A221" s="2">
-        <v>42528</v>
+        <v>42904</v>
       </c>
       <c r="B221">
         <v>0</v>
@@ -5480,7 +4992,7 @@
     </row>
     <row r="222">
       <c r="A222" s="2">
-        <v>42535</v>
+        <v>42911</v>
       </c>
       <c r="B222">
         <v>0</v>
@@ -5488,7 +5000,7 @@
     </row>
     <row r="223">
       <c r="A223" s="2">
-        <v>42542</v>
+        <v>42918</v>
       </c>
       <c r="B223">
         <v>0</v>
@@ -5496,15 +5008,15 @@
     </row>
     <row r="224">
       <c r="A224" s="2">
-        <v>42549</v>
+        <v>42925</v>
       </c>
       <c r="B224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2">
-        <v>42556</v>
+        <v>42932</v>
       </c>
       <c r="B225">
         <v>0</v>
@@ -5512,7 +5024,7 @@
     </row>
     <row r="226">
       <c r="A226" s="2">
-        <v>42563</v>
+        <v>42939</v>
       </c>
       <c r="B226">
         <v>0</v>
@@ -5520,7 +5032,7 @@
     </row>
     <row r="227">
       <c r="A227" s="2">
-        <v>42570</v>
+        <v>42946</v>
       </c>
       <c r="B227">
         <v>0</v>
@@ -5528,7 +5040,7 @@
     </row>
     <row r="228">
       <c r="A228" s="2">
-        <v>42577</v>
+        <v>42953</v>
       </c>
       <c r="B228">
         <v>0</v>
@@ -5536,15 +5048,15 @@
     </row>
     <row r="229">
       <c r="A229" s="2">
-        <v>42584</v>
+        <v>42960</v>
       </c>
       <c r="B229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2">
-        <v>42591</v>
+        <v>42967</v>
       </c>
       <c r="B230">
         <v>0</v>
@@ -5552,47 +5064,47 @@
     </row>
     <row r="231">
       <c r="A231" s="2">
-        <v>42598</v>
+        <v>42974</v>
       </c>
       <c r="B231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2">
-        <v>42605</v>
+        <v>42981</v>
       </c>
       <c r="B232">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2">
-        <v>42612</v>
+        <v>42988</v>
       </c>
       <c r="B233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2">
-        <v>42619</v>
+        <v>42995</v>
       </c>
       <c r="B234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2">
-        <v>42626</v>
+        <v>43002</v>
       </c>
       <c r="B235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2">
-        <v>42633</v>
+        <v>43009</v>
       </c>
       <c r="B236">
         <v>0</v>
@@ -5600,7 +5112,7 @@
     </row>
     <row r="237">
       <c r="A237" s="2">
-        <v>42639</v>
+        <v>43016</v>
       </c>
       <c r="B237">
         <v>5</v>
@@ -5608,47 +5120,47 @@
     </row>
     <row r="238">
       <c r="A238" s="2">
-        <v>42640</v>
+        <v>43023</v>
       </c>
       <c r="B238">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2">
-        <v>42647</v>
+        <v>43030</v>
       </c>
       <c r="B239">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2">
-        <v>42654</v>
+        <v>43037</v>
       </c>
       <c r="B240">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2">
-        <v>42660</v>
+        <v>43044</v>
       </c>
       <c r="B241">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2">
-        <v>42661</v>
+        <v>43051</v>
       </c>
       <c r="B242">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2">
-        <v>42668</v>
+        <v>43058</v>
       </c>
       <c r="B243">
         <v>0</v>
@@ -5656,15 +5168,15 @@
     </row>
     <row r="244">
       <c r="A244" s="2">
-        <v>42674</v>
+        <v>43065</v>
       </c>
       <c r="B244">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2">
-        <v>42675</v>
+        <v>43072</v>
       </c>
       <c r="B245">
         <v>0</v>
@@ -5672,15 +5184,15 @@
     </row>
     <row r="246">
       <c r="A246" s="2">
-        <v>42681</v>
+        <v>43079</v>
       </c>
       <c r="B246">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2">
-        <v>42682</v>
+        <v>43086</v>
       </c>
       <c r="B247">
         <v>0</v>
@@ -5688,15 +5200,15 @@
     </row>
     <row r="248">
       <c r="A248" s="2">
-        <v>42688</v>
+        <v>43093</v>
       </c>
       <c r="B248">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2">
-        <v>42689</v>
+        <v>43100</v>
       </c>
       <c r="B249">
         <v>0</v>
@@ -5704,15 +5216,15 @@
     </row>
     <row r="250">
       <c r="A250" s="2">
-        <v>42695</v>
+        <v>43107</v>
       </c>
       <c r="B250">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2">
-        <v>42696</v>
+        <v>43114</v>
       </c>
       <c r="B251">
         <v>0</v>
@@ -5720,31 +5232,31 @@
     </row>
     <row r="252">
       <c r="A252" s="2">
-        <v>42702</v>
+        <v>43121</v>
       </c>
       <c r="B252">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2">
-        <v>42703</v>
+        <v>43128</v>
       </c>
       <c r="B253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2">
-        <v>42709</v>
+        <v>43135</v>
       </c>
       <c r="B254">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2">
-        <v>42710</v>
+        <v>43142</v>
       </c>
       <c r="B255">
         <v>0</v>
@@ -5752,31 +5264,31 @@
     </row>
     <row r="256">
       <c r="A256" s="2">
-        <v>42716</v>
+        <v>43149</v>
       </c>
       <c r="B256">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2">
-        <v>42717</v>
+        <v>43156</v>
       </c>
       <c r="B257">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2">
-        <v>42724</v>
+        <v>43163</v>
       </c>
       <c r="B258">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2">
-        <v>42730</v>
+        <v>43170</v>
       </c>
       <c r="B259">
         <v>2</v>
@@ -5784,47 +5296,47 @@
     </row>
     <row r="260">
       <c r="A260" s="2">
-        <v>42731</v>
+        <v>43177</v>
       </c>
       <c r="B260">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2">
-        <v>42738</v>
+        <v>43184</v>
       </c>
       <c r="B261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2">
-        <v>42744</v>
+        <v>43191</v>
       </c>
       <c r="B262">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2">
-        <v>42745</v>
+        <v>43198</v>
       </c>
       <c r="B263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2">
-        <v>42751</v>
+        <v>43205</v>
       </c>
       <c r="B264">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2">
-        <v>42752</v>
+        <v>43212</v>
       </c>
       <c r="B265">
         <v>0</v>
@@ -5832,882 +5344,10 @@
     </row>
     <row r="266">
       <c r="A266" s="2">
-        <v>42758</v>
+        <v>43219</v>
       </c>
       <c r="B266">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" s="2">
-        <v>42759</v>
-      </c>
-      <c r="B267">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" s="2">
-        <v>42765</v>
-      </c>
-      <c r="B268">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" s="2">
-        <v>42766</v>
-      </c>
-      <c r="B269">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" s="2">
-        <v>42772</v>
-      </c>
-      <c r="B270">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" s="2">
-        <v>42773</v>
-      </c>
-      <c r="B271">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" s="2">
-        <v>42779</v>
-      </c>
-      <c r="B272">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" s="2">
-        <v>42780</v>
-      </c>
-      <c r="B273">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" s="2">
-        <v>42786</v>
-      </c>
-      <c r="B274">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" s="2">
-        <v>42787</v>
-      </c>
-      <c r="B275">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" s="2">
-        <v>42793</v>
-      </c>
-      <c r="B276">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" s="2">
-        <v>42794</v>
-      </c>
-      <c r="B277">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" s="2">
-        <v>42800</v>
-      </c>
-      <c r="B278">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" s="2">
-        <v>42801</v>
-      </c>
-      <c r="B279">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" s="2">
-        <v>42807</v>
-      </c>
-      <c r="B280">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" s="2">
-        <v>42808</v>
-      </c>
-      <c r="B281">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" s="2">
-        <v>42814</v>
-      </c>
-      <c r="B282">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" s="2">
-        <v>42815</v>
-      </c>
-      <c r="B283">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" s="2">
-        <v>42821</v>
-      </c>
-      <c r="B284">
         <v>4</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" s="2">
-        <v>42822</v>
-      </c>
-      <c r="B285">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" s="2">
-        <v>42828</v>
-      </c>
-      <c r="B286">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" s="2">
-        <v>42829</v>
-      </c>
-      <c r="B287">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" s="2">
-        <v>42835</v>
-      </c>
-      <c r="B288">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" s="2">
-        <v>42836</v>
-      </c>
-      <c r="B289">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" s="2">
-        <v>42842</v>
-      </c>
-      <c r="B290">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" s="2">
-        <v>42843</v>
-      </c>
-      <c r="B291">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" s="2">
-        <v>42849</v>
-      </c>
-      <c r="B292">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" s="2">
-        <v>42850</v>
-      </c>
-      <c r="B293">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" s="2">
-        <v>42856</v>
-      </c>
-      <c r="B294">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" s="2">
-        <v>42857</v>
-      </c>
-      <c r="B295">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" s="2">
-        <v>42863</v>
-      </c>
-      <c r="B296">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" s="2">
-        <v>42864</v>
-      </c>
-      <c r="B297">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" s="2">
-        <v>42870</v>
-      </c>
-      <c r="B298">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" s="2">
-        <v>42871</v>
-      </c>
-      <c r="B299">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" s="2">
-        <v>42877</v>
-      </c>
-      <c r="B300">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" s="2">
-        <v>42878</v>
-      </c>
-      <c r="B301">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" s="2">
-        <v>42885</v>
-      </c>
-      <c r="B302">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" s="2">
-        <v>42892</v>
-      </c>
-      <c r="B303">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" s="2">
-        <v>42899</v>
-      </c>
-      <c r="B304">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" s="2">
-        <v>42906</v>
-      </c>
-      <c r="B305">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" s="2">
-        <v>42913</v>
-      </c>
-      <c r="B306">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" s="2">
-        <v>42920</v>
-      </c>
-      <c r="B307">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" s="2">
-        <v>42926</v>
-      </c>
-      <c r="B308">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" s="2">
-        <v>42927</v>
-      </c>
-      <c r="B309">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" s="2">
-        <v>42934</v>
-      </c>
-      <c r="B310">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" s="2">
-        <v>42941</v>
-      </c>
-      <c r="B311">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" s="2">
-        <v>42948</v>
-      </c>
-      <c r="B312">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" s="2">
-        <v>42955</v>
-      </c>
-      <c r="B313">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" s="2">
-        <v>42961</v>
-      </c>
-      <c r="B314">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" s="2">
-        <v>42962</v>
-      </c>
-      <c r="B315">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" s="2">
-        <v>42969</v>
-      </c>
-      <c r="B316">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" s="2">
-        <v>42975</v>
-      </c>
-      <c r="B317">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" s="2">
-        <v>42976</v>
-      </c>
-      <c r="B318">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" s="2">
-        <v>42982</v>
-      </c>
-      <c r="B319">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" s="2">
-        <v>42983</v>
-      </c>
-      <c r="B320">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" s="2">
-        <v>42989</v>
-      </c>
-      <c r="B321">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" s="2">
-        <v>42990</v>
-      </c>
-      <c r="B322">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" s="2">
-        <v>42996</v>
-      </c>
-      <c r="B323">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" s="2">
-        <v>42997</v>
-      </c>
-      <c r="B324">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" s="2">
-        <v>43003</v>
-      </c>
-      <c r="B325">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" s="2">
-        <v>43004</v>
-      </c>
-      <c r="B326">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" s="2">
-        <v>43011</v>
-      </c>
-      <c r="B327">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" s="2">
-        <v>43017</v>
-      </c>
-      <c r="B328">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" s="2">
-        <v>43018</v>
-      </c>
-      <c r="B329">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" s="2">
-        <v>43024</v>
-      </c>
-      <c r="B330">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" s="2">
-        <v>43025</v>
-      </c>
-      <c r="B331">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" s="2">
-        <v>43031</v>
-      </c>
-      <c r="B332">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" s="2">
-        <v>43032</v>
-      </c>
-      <c r="B333">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" s="2">
-        <v>43038</v>
-      </c>
-      <c r="B334">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" s="2">
-        <v>43039</v>
-      </c>
-      <c r="B335">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" s="2">
-        <v>43045</v>
-      </c>
-      <c r="B336">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" s="2">
-        <v>43046</v>
-      </c>
-      <c r="B337">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" s="2">
-        <v>43052</v>
-      </c>
-      <c r="B338">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" s="2">
-        <v>43053</v>
-      </c>
-      <c r="B339">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" s="2">
-        <v>43060</v>
-      </c>
-      <c r="B340">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" s="2">
-        <v>43066</v>
-      </c>
-      <c r="B341">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" s="2">
-        <v>43067</v>
-      </c>
-      <c r="B342">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" s="2">
-        <v>43074</v>
-      </c>
-      <c r="B343">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" s="2">
-        <v>43081</v>
-      </c>
-      <c r="B344">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" s="2">
-        <v>43088</v>
-      </c>
-      <c r="B345">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" s="2">
-        <v>43095</v>
-      </c>
-      <c r="B346">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" s="2">
-        <v>43101</v>
-      </c>
-      <c r="B347">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" s="2">
-        <v>43102</v>
-      </c>
-      <c r="B348">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" s="2">
-        <v>43109</v>
-      </c>
-      <c r="B349">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" s="2">
-        <v>43116</v>
-      </c>
-      <c r="B350">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" s="2">
-        <v>43123</v>
-      </c>
-      <c r="B351">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" s="2">
-        <v>43129</v>
-      </c>
-      <c r="B352">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" s="2">
-        <v>43130</v>
-      </c>
-      <c r="B353">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" s="2">
-        <v>43137</v>
-      </c>
-      <c r="B354">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" s="2">
-        <v>43143</v>
-      </c>
-      <c r="B355">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" s="2">
-        <v>43144</v>
-      </c>
-      <c r="B356">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" s="2">
-        <v>43150</v>
-      </c>
-      <c r="B357">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" s="2">
-        <v>43151</v>
-      </c>
-      <c r="B358">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" s="2">
-        <v>43157</v>
-      </c>
-      <c r="B359">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" s="2">
-        <v>43158</v>
-      </c>
-      <c r="B360">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" s="2">
-        <v>43164</v>
-      </c>
-      <c r="B361">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" s="2">
-        <v>43165</v>
-      </c>
-      <c r="B362">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" s="2">
-        <v>43171</v>
-      </c>
-      <c r="B363">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" s="2">
-        <v>43172</v>
-      </c>
-      <c r="B364">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" s="2">
-        <v>43178</v>
-      </c>
-      <c r="B365">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" s="2">
-        <v>43179</v>
-      </c>
-      <c r="B366">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" s="2">
-        <v>43185</v>
-      </c>
-      <c r="B367">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" s="2">
-        <v>43186</v>
-      </c>
-      <c r="B368">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" s="2">
-        <v>43193</v>
-      </c>
-      <c r="B369">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" s="2">
-        <v>43199</v>
-      </c>
-      <c r="B370">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" s="2">
-        <v>43200</v>
-      </c>
-      <c r="B371">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" s="2">
-        <v>43207</v>
-      </c>
-      <c r="B372">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" s="2">
-        <v>43214</v>
-      </c>
-      <c r="B373">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" s="2">
-        <v>43220</v>
-      </c>
-      <c r="B374">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" s="2">
-        <v>43221</v>
-      </c>
-      <c r="B375">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6717,7 +5357,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B190"/>
+  <dimension ref="A1:B136"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6740,7 +5380,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>42338</v>
+        <v>42337</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -6748,7 +5388,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>42339</v>
+        <v>42344</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -6756,7 +5396,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>42346</v>
+        <v>42351</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -6764,7 +5404,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>42353</v>
+        <v>42358</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -6772,7 +5412,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <v>42360</v>
+        <v>42365</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -6780,7 +5420,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2">
-        <v>42367</v>
+        <v>42372</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -6788,7 +5428,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2">
-        <v>42374</v>
+        <v>42379</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -6796,7 +5436,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2">
-        <v>42381</v>
+        <v>42386</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -6804,31 +5444,31 @@
     </row>
     <row r="10">
       <c r="A10" s="2">
-        <v>42388</v>
+        <v>42393</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2">
-        <v>42394</v>
+        <v>42400</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2">
-        <v>42395</v>
+        <v>42407</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2">
-        <v>42402</v>
+        <v>42414</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -6836,7 +5476,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2">
-        <v>42408</v>
+        <v>42421</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -6844,7 +5484,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2">
-        <v>42409</v>
+        <v>42428</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -6852,23 +5492,23 @@
     </row>
     <row r="16">
       <c r="A16" s="2">
-        <v>42416</v>
+        <v>42435</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2">
-        <v>42422</v>
+        <v>42442</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2">
-        <v>42423</v>
+        <v>42449</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -6876,15 +5516,15 @@
     </row>
     <row r="19">
       <c r="A19" s="2">
-        <v>42430</v>
+        <v>42456</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2">
-        <v>42436</v>
+        <v>42463</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -6892,15 +5532,15 @@
     </row>
     <row r="21">
       <c r="A21" s="2">
-        <v>42437</v>
+        <v>42470</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2">
-        <v>42444</v>
+        <v>42477</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -6908,23 +5548,23 @@
     </row>
     <row r="23">
       <c r="A23" s="2">
-        <v>42451</v>
+        <v>42484</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2">
-        <v>42457</v>
+        <v>42491</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2">
-        <v>42458</v>
+        <v>42498</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -6932,15 +5572,15 @@
     </row>
     <row r="26">
       <c r="A26" s="2">
-        <v>42464</v>
+        <v>42505</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2">
-        <v>42465</v>
+        <v>42512</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -6948,15 +5588,15 @@
     </row>
     <row r="28">
       <c r="A28" s="2">
-        <v>42471</v>
+        <v>42519</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2">
-        <v>42472</v>
+        <v>42526</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -6964,7 +5604,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2">
-        <v>42479</v>
+        <v>42533</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -6972,15 +5612,15 @@
     </row>
     <row r="31">
       <c r="A31" s="2">
-        <v>42485</v>
+        <v>42540</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2">
-        <v>42486</v>
+        <v>42547</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -6988,7 +5628,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2">
-        <v>42493</v>
+        <v>42554</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -6996,7 +5636,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2">
-        <v>42500</v>
+        <v>42561</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -7004,7 +5644,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2">
-        <v>42507</v>
+        <v>42568</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -7012,7 +5652,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2">
-        <v>42514</v>
+        <v>42575</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -7020,7 +5660,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2">
-        <v>42521</v>
+        <v>42582</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -7028,7 +5668,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2">
-        <v>42528</v>
+        <v>42589</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -7036,7 +5676,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2">
-        <v>42535</v>
+        <v>42596</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -7044,7 +5684,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2">
-        <v>42542</v>
+        <v>42603</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -7052,7 +5692,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2">
-        <v>42549</v>
+        <v>42610</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -7060,7 +5700,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2">
-        <v>42556</v>
+        <v>42617</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -7068,15 +5708,15 @@
     </row>
     <row r="43">
       <c r="A43" s="2">
-        <v>42563</v>
+        <v>42624</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2">
-        <v>42570</v>
+        <v>42631</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -7084,15 +5724,15 @@
     </row>
     <row r="45">
       <c r="A45" s="2">
-        <v>42577</v>
+        <v>42638</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2">
-        <v>42584</v>
+        <v>42645</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -7100,7 +5740,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2">
-        <v>42591</v>
+        <v>42652</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -7108,7 +5748,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2">
-        <v>42598</v>
+        <v>42659</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -7116,7 +5756,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2">
-        <v>42605</v>
+        <v>42666</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -7124,7 +5764,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2">
-        <v>42612</v>
+        <v>42673</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -7132,39 +5772,39 @@
     </row>
     <row r="51">
       <c r="A51" s="2">
-        <v>42619</v>
+        <v>42680</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2">
-        <v>42625</v>
+        <v>42687</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2">
-        <v>42626</v>
+        <v>42694</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2">
-        <v>42633</v>
+        <v>42701</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2">
-        <v>42639</v>
+        <v>42708</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -7172,7 +5812,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2">
-        <v>42640</v>
+        <v>42715</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -7180,7 +5820,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2">
-        <v>42647</v>
+        <v>42722</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -7188,7 +5828,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2">
-        <v>42654</v>
+        <v>42729</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -7196,15 +5836,15 @@
     </row>
     <row r="59">
       <c r="A59" s="2">
-        <v>42661</v>
+        <v>42736</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2">
-        <v>42668</v>
+        <v>42743</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -7212,135 +5852,135 @@
     </row>
     <row r="61">
       <c r="A61" s="2">
-        <v>42674</v>
+        <v>42750</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2">
-        <v>42675</v>
+        <v>42757</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2">
-        <v>42681</v>
+        <v>42764</v>
       </c>
       <c r="B63">
-        <v>9</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2">
-        <v>42682</v>
+        <v>42771</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2">
-        <v>42688</v>
+        <v>42778</v>
       </c>
       <c r="B65">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2">
-        <v>42689</v>
+        <v>42785</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2">
-        <v>42695</v>
+        <v>42792</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2">
-        <v>42696</v>
+        <v>42799</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2">
-        <v>42702</v>
+        <v>42806</v>
       </c>
       <c r="B69">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2">
-        <v>42703</v>
+        <v>42813</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2">
-        <v>42709</v>
+        <v>42820</v>
       </c>
       <c r="B71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2">
-        <v>42710</v>
+        <v>42827</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2">
-        <v>42717</v>
+        <v>42834</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2">
-        <v>42724</v>
+        <v>42841</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2">
-        <v>42730</v>
+        <v>42848</v>
       </c>
       <c r="B75">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2">
-        <v>42731</v>
+        <v>42855</v>
       </c>
       <c r="B76">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2">
-        <v>42738</v>
+        <v>42862</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -7348,7 +5988,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2">
-        <v>42745</v>
+        <v>42869</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -7356,15 +5996,15 @@
     </row>
     <row r="79">
       <c r="A79" s="2">
-        <v>42751</v>
+        <v>42876</v>
       </c>
       <c r="B79">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2">
-        <v>42752</v>
+        <v>42883</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -7372,15 +6012,15 @@
     </row>
     <row r="81">
       <c r="A81" s="2">
-        <v>42758</v>
+        <v>42890</v>
       </c>
       <c r="B81">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2">
-        <v>42759</v>
+        <v>42897</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -7388,15 +6028,15 @@
     </row>
     <row r="83">
       <c r="A83" s="2">
-        <v>42765</v>
+        <v>42904</v>
       </c>
       <c r="B83">
-        <v>55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2">
-        <v>42766</v>
+        <v>42911</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -7404,15 +6044,15 @@
     </row>
     <row r="85">
       <c r="A85" s="2">
-        <v>42772</v>
+        <v>42918</v>
       </c>
       <c r="B85">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2">
-        <v>42773</v>
+        <v>42925</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -7420,15 +6060,15 @@
     </row>
     <row r="87">
       <c r="A87" s="2">
-        <v>42779</v>
+        <v>42932</v>
       </c>
       <c r="B87">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2">
-        <v>42780</v>
+        <v>42939</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -7436,31 +6076,31 @@
     </row>
     <row r="89">
       <c r="A89" s="2">
-        <v>42786</v>
+        <v>42946</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2">
-        <v>42787</v>
+        <v>42953</v>
       </c>
       <c r="B90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2">
-        <v>42793</v>
+        <v>42960</v>
       </c>
       <c r="B91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2">
-        <v>42794</v>
+        <v>42967</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -7468,23 +6108,23 @@
     </row>
     <row r="93">
       <c r="A93" s="2">
-        <v>42800</v>
+        <v>42974</v>
       </c>
       <c r="B93">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2">
-        <v>42801</v>
+        <v>42981</v>
       </c>
       <c r="B94">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2">
-        <v>42807</v>
+        <v>42988</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -7492,31 +6132,31 @@
     </row>
     <row r="96">
       <c r="A96" s="2">
-        <v>42808</v>
+        <v>42995</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2">
-        <v>42814</v>
+        <v>43002</v>
       </c>
       <c r="B97">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2">
-        <v>42815</v>
+        <v>43009</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2">
-        <v>42822</v>
+        <v>43016</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -7524,15 +6164,15 @@
     </row>
     <row r="100">
       <c r="A100" s="2">
-        <v>42828</v>
+        <v>43023</v>
       </c>
       <c r="B100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2">
-        <v>42829</v>
+        <v>43030</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -7540,7 +6180,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2">
-        <v>42835</v>
+        <v>43037</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -7548,23 +6188,23 @@
     </row>
     <row r="103">
       <c r="A103" s="2">
-        <v>42836</v>
+        <v>43044</v>
       </c>
       <c r="B103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2">
-        <v>42842</v>
+        <v>43051</v>
       </c>
       <c r="B104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2">
-        <v>42843</v>
+        <v>43058</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -7572,7 +6212,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2">
-        <v>42849</v>
+        <v>43065</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -7580,23 +6220,23 @@
     </row>
     <row r="107">
       <c r="A107" s="2">
-        <v>42850</v>
+        <v>43072</v>
       </c>
       <c r="B107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2">
-        <v>42856</v>
+        <v>43079</v>
       </c>
       <c r="B108">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2">
-        <v>42857</v>
+        <v>43086</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -7604,7 +6244,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2">
-        <v>42864</v>
+        <v>43093</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -7612,7 +6252,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2">
-        <v>42871</v>
+        <v>43100</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -7620,23 +6260,23 @@
     </row>
     <row r="112">
       <c r="A112" s="2">
-        <v>42877</v>
+        <v>43107</v>
       </c>
       <c r="B112">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2">
-        <v>42878</v>
+        <v>43114</v>
       </c>
       <c r="B113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2">
-        <v>42885</v>
+        <v>43121</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -7644,15 +6284,15 @@
     </row>
     <row r="115">
       <c r="A115" s="2">
-        <v>42892</v>
+        <v>43128</v>
       </c>
       <c r="B115">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2">
-        <v>42899</v>
+        <v>43135</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -7660,7 +6300,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2">
-        <v>42906</v>
+        <v>43142</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -7668,15 +6308,15 @@
     </row>
     <row r="118">
       <c r="A118" s="2">
-        <v>42913</v>
+        <v>43149</v>
       </c>
       <c r="B118">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2">
-        <v>42920</v>
+        <v>43156</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -7684,15 +6324,15 @@
     </row>
     <row r="120">
       <c r="A120" s="2">
-        <v>42927</v>
+        <v>43163</v>
       </c>
       <c r="B120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2">
-        <v>42934</v>
+        <v>43170</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -7700,15 +6340,15 @@
     </row>
     <row r="122">
       <c r="A122" s="2">
-        <v>42941</v>
+        <v>43177</v>
       </c>
       <c r="B122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2">
-        <v>42948</v>
+        <v>43184</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -7716,23 +6356,23 @@
     </row>
     <row r="124">
       <c r="A124" s="2">
-        <v>42954</v>
+        <v>43191</v>
       </c>
       <c r="B124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2">
-        <v>42955</v>
+        <v>43198</v>
       </c>
       <c r="B125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2">
-        <v>42962</v>
+        <v>43205</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -7740,7 +6380,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2">
-        <v>42969</v>
+        <v>43212</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -7748,15 +6388,15 @@
     </row>
     <row r="128">
       <c r="A128" s="2">
-        <v>42975</v>
+        <v>43219</v>
       </c>
       <c r="B128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2">
-        <v>42976</v>
+        <v>43226</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -7764,15 +6404,15 @@
     </row>
     <row r="130">
       <c r="A130" s="2">
-        <v>42982</v>
+        <v>43233</v>
       </c>
       <c r="B130">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2">
-        <v>42983</v>
+        <v>43240</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -7780,15 +6420,15 @@
     </row>
     <row r="132">
       <c r="A132" s="2">
-        <v>42989</v>
+        <v>43247</v>
       </c>
       <c r="B132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2">
-        <v>42990</v>
+        <v>43254</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -7796,15 +6436,15 @@
     </row>
     <row r="134">
       <c r="A134" s="2">
-        <v>42996</v>
+        <v>43261</v>
       </c>
       <c r="B134">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2">
-        <v>42997</v>
+        <v>43268</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -7812,442 +6452,10 @@
     </row>
     <row r="136">
       <c r="A136" s="2">
-        <v>43003</v>
+        <v>43275</v>
       </c>
       <c r="B136">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="2">
-        <v>43004</v>
-      </c>
-      <c r="B137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="2">
-        <v>43010</v>
-      </c>
-      <c r="B138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="2">
-        <v>43011</v>
-      </c>
-      <c r="B139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="2">
-        <v>43018</v>
-      </c>
-      <c r="B140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="2">
-        <v>43025</v>
-      </c>
-      <c r="B141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="2">
-        <v>43032</v>
-      </c>
-      <c r="B142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="2">
-        <v>43038</v>
-      </c>
-      <c r="B143">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="2">
-        <v>43039</v>
-      </c>
-      <c r="B144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="2">
-        <v>43045</v>
-      </c>
-      <c r="B145">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="2">
-        <v>43046</v>
-      </c>
-      <c r="B146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="2">
-        <v>43053</v>
-      </c>
-      <c r="B147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="2">
-        <v>43060</v>
-      </c>
-      <c r="B148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="2">
-        <v>43066</v>
-      </c>
-      <c r="B149">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="2">
-        <v>43067</v>
-      </c>
-      <c r="B150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="2">
-        <v>43073</v>
-      </c>
-      <c r="B151">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="2">
-        <v>43074</v>
-      </c>
-      <c r="B152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="2">
-        <v>43081</v>
-      </c>
-      <c r="B153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="2">
-        <v>43088</v>
-      </c>
-      <c r="B154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="2">
-        <v>43095</v>
-      </c>
-      <c r="B155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="2">
-        <v>43101</v>
-      </c>
-      <c r="B156">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="2">
-        <v>43102</v>
-      </c>
-      <c r="B157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="2">
-        <v>43109</v>
-      </c>
-      <c r="B158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="2">
-        <v>43115</v>
-      </c>
-      <c r="B159">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="2">
-        <v>43116</v>
-      </c>
-      <c r="B160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="2">
-        <v>43123</v>
-      </c>
-      <c r="B161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="2">
-        <v>43129</v>
-      </c>
-      <c r="B162">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="2">
-        <v>43130</v>
-      </c>
-      <c r="B163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="2">
-        <v>43137</v>
-      </c>
-      <c r="B164">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="2">
-        <v>43143</v>
-      </c>
-      <c r="B165">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="2">
-        <v>43144</v>
-      </c>
-      <c r="B166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="2">
-        <v>43150</v>
-      </c>
-      <c r="B167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="2">
-        <v>43151</v>
-      </c>
-      <c r="B168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="2">
-        <v>43158</v>
-      </c>
-      <c r="B169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="2">
-        <v>43164</v>
-      </c>
-      <c r="B170">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="2">
-        <v>43165</v>
-      </c>
-      <c r="B171">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="2">
-        <v>43172</v>
-      </c>
-      <c r="B172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="2">
-        <v>43178</v>
-      </c>
-      <c r="B173">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="2">
-        <v>43179</v>
-      </c>
-      <c r="B174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="2">
-        <v>43186</v>
-      </c>
-      <c r="B175">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="2">
-        <v>43193</v>
-      </c>
-      <c r="B176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="2">
-        <v>43199</v>
-      </c>
-      <c r="B177">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="2">
-        <v>43200</v>
-      </c>
-      <c r="B178">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="2">
-        <v>43207</v>
-      </c>
-      <c r="B179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="2">
-        <v>43214</v>
-      </c>
-      <c r="B180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="2">
-        <v>43221</v>
-      </c>
-      <c r="B181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="2">
-        <v>43228</v>
-      </c>
-      <c r="B182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="2">
-        <v>43235</v>
-      </c>
-      <c r="B183">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="2">
-        <v>43242</v>
-      </c>
-      <c r="B184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="2">
-        <v>43249</v>
-      </c>
-      <c r="B185">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="2">
-        <v>43256</v>
-      </c>
-      <c r="B186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="2">
-        <v>43263</v>
-      </c>
-      <c r="B187">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="2">
-        <v>43270</v>
-      </c>
-      <c r="B188">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="2">
-        <v>43276</v>
-      </c>
-      <c r="B189">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="2">
-        <v>43277</v>
-      </c>
-      <c r="B190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/docs/trends-paper/wave-counts/us-wave-counts/third_us_wave_counts.xlsx
+++ b/docs/trends-paper/wave-counts/us-wave-counts/third_us_wave_counts.xlsx
@@ -383,7 +383,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>440</v>
+        <v>447</v>
       </c>
     </row>
     <row r="3">
@@ -393,7 +393,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>451</v>
+        <v>457</v>
       </c>
     </row>
     <row r="4">
@@ -403,7 +403,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -2231,7 +2231,7 @@
         <v>42428</v>
       </c>
       <c r="B226">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="227">
@@ -2295,7 +2295,7 @@
         <v>42484</v>
       </c>
       <c r="B234">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="235">
@@ -2519,7 +2519,7 @@
         <v>42680</v>
       </c>
       <c r="B262">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="263">
@@ -2551,7 +2551,7 @@
         <v>42708</v>
       </c>
       <c r="B266">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267">
@@ -2631,7 +2631,7 @@
         <v>42778</v>
       </c>
       <c r="B276">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="277">
@@ -3483,7 +3483,7 @@
         <v>41588</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34">
@@ -3491,7 +3491,7 @@
         <v>41595</v>
       </c>
       <c r="B34">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35">
@@ -3507,7 +3507,7 @@
         <v>41609</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
@@ -4747,7 +4747,7 @@
         <v>42694</v>
       </c>
       <c r="B191">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="192">
@@ -4819,7 +4819,7 @@
         <v>42757</v>
       </c>
       <c r="B200">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="201">
@@ -5807,7 +5807,7 @@
         <v>42708</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
@@ -5863,7 +5863,7 @@
         <v>42757</v>
       </c>
       <c r="B62">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63">
@@ -5887,7 +5887,7 @@
         <v>42778</v>
       </c>
       <c r="B65">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66">

--- a/docs/trends-paper/wave-counts/us-wave-counts/third_us_wave_counts.xlsx
+++ b/docs/trends-paper/wave-counts/us-wave-counts/third_us_wave_counts.xlsx
@@ -358,7 +358,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -367,10 +367,15 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>issue</t>
+          <t>wave</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>criteria</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>n_protests</t>
         </is>
@@ -379,30 +384,45 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Third Wave (Trump)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>trump_not_immigration</t>
         </is>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>447</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Third Wave (Trump)</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>immigration_not_trump</t>
         </is>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>457</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Third Wave (Trump)</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>trump_and_immigration</t>
         </is>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>259</v>
       </c>
     </row>

--- a/docs/trends-paper/wave-counts/us-wave-counts/third_us_wave_counts.xlsx
+++ b/docs/trends-paper/wave-counts/us-wave-counts/third_us_wave_counts.xlsx
@@ -384,7 +384,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Third Wave (Trump)</t>
+          <t>Third US Wave (Trump)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -399,7 +399,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Third Wave (Trump)</t>
+          <t>Third US Wave (Trump)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -414,7 +414,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Third Wave (Trump)</t>
+          <t>Third US Wave (Trump)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
